--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -19,13 +19,13 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AI$1:$AI$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$CL$1:$CL$5</definedName>
     <definedName name="oxygenationstatusofsample">'cv_sample'!$AV$1:$AV$2</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$CI$1:$CI$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AB$1:$AB$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="774">
   <si>
     <t>alias</t>
   </si>
@@ -455,6 +455,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -554,6 +566,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -671,6 +701,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -678,6 +711,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2883,10 +2919,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2927,10 +2963,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2993,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2977,7 +3013,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2994,7 +3030,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3011,7 +3047,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3028,7 +3064,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3045,7 +3081,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3062,7 +3098,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3079,7 +3115,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3096,7 +3132,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3113,7 +3149,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3127,7 +3163,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3141,7 +3177,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3155,7 +3191,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3169,7 +3205,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3179,8 +3215,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3190,8 +3229,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3201,8 +3243,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3212,8 +3257,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3224,7 +3272,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3235,7 +3283,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3246,7 +3294,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3257,7 +3305,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3268,7 +3316,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3279,7 +3327,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3290,7 +3338,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3301,7 +3349,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3312,7 +3360,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3323,7 +3371,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3334,7 +3382,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3345,7 +3393,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3356,7 +3404,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3367,7 +3415,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3375,7 +3423,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3383,7 +3431,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3391,7 +3439,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3399,7 +3447,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3407,7 +3455,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3415,7 +3463,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3423,7 +3471,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3431,7 +3479,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3439,7 +3487,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3447,176 +3495,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3641,27 +3729,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3684,122 +3772,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3826,552 +3914,552 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:92" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -4409,1578 +4497,1578 @@
   <sheetData>
     <row r="1" spans="28:90">
       <c r="AB1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AI1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AV1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="CH1" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="CI1" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="CL1" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="28:90">
       <c r="AB2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AI2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AV2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="CH2" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="CI2" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="CL2" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="28:90">
       <c r="AB3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AI3" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="CH3" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="CI3" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="CL3" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="28:90">
       <c r="AI4" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="CH4" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="CI4" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="CL4" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="28:90">
       <c r="AI5" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="CH5" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="CI5" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="CL5" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="28:90">
       <c r="AI6" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="CH6" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="CI6" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="28:90">
       <c r="AI7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="CH7" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="CI7" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8" spans="28:90">
       <c r="AI8" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="CH8" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="28:90">
       <c r="AI9" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="CH9" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="28:90">
       <c r="AI10" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="CH10" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="28:90">
       <c r="AI11" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="CH11" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="28:90">
       <c r="AI12" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="CH12" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="28:90">
       <c r="AI13" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="CH13" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="28:90">
       <c r="AI14" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="CH14" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="28:90">
       <c r="AI15" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="CH15" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="28:90">
       <c r="AI16" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="CH16" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="35:86">
       <c r="AI17" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="CH17" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18" spans="35:86">
       <c r="AI18" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CH18" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="35:86">
       <c r="AI19" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="CH19" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="35:86">
       <c r="AI20" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="CH20" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="21" spans="35:86">
       <c r="AI21" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="CH21" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" spans="35:86">
       <c r="AI22" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="CH22" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="35:86">
       <c r="AI23" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="CH23" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24" spans="35:86">
       <c r="AI24" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="CH24" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
     </row>
     <row r="25" spans="35:86">
       <c r="AI25" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="CH25" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="35:86">
       <c r="AI26" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="CH26" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" spans="35:86">
       <c r="AI27" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="CH27" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="35:86">
       <c r="AI28" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="CH28" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" spans="35:86">
       <c r="AI29" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="CH29" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="30" spans="35:86">
       <c r="AI30" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="CH30" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="31" spans="35:86">
       <c r="AI31" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="35:86">
       <c r="AI32" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="35:35">
       <c r="AI33" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="35:35">
       <c r="AI34" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="35:35">
       <c r="AI35" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="35:35">
       <c r="AI36" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="35:35">
       <c r="AI37" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="35:35">
       <c r="AI38" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="35:35">
       <c r="AI39" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="35:35">
       <c r="AI40" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="35:35">
       <c r="AI41" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="35:35">
       <c r="AI42" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="35:35">
       <c r="AI43" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="35:35">
       <c r="AI44" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="35:35">
       <c r="AI45" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="35:35">
       <c r="AI46" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="35:35">
       <c r="AI47" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="35:35">
       <c r="AI48" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="35:35">
       <c r="AI49" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="35:35">
       <c r="AI50" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="35:35">
       <c r="AI51" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="35:35">
       <c r="AI52" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="35:35">
       <c r="AI53" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="35:35">
       <c r="AI54" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="35:35">
       <c r="AI55" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="35:35">
       <c r="AI56" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="35:35">
       <c r="AI57" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="35:35">
       <c r="AI58" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="35:35">
       <c r="AI59" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="35:35">
       <c r="AI60" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="35:35">
       <c r="AI61" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="35:35">
       <c r="AI62" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="35:35">
       <c r="AI63" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="35:35">
       <c r="AI64" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="35:35">
       <c r="AI65" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="35:35">
       <c r="AI66" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="35:35">
       <c r="AI67" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="35:35">
       <c r="AI68" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="35:35">
       <c r="AI69" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="35:35">
       <c r="AI70" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="35:35">
       <c r="AI71" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="35:35">
       <c r="AI72" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="35:35">
       <c r="AI73" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="35:35">
       <c r="AI74" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="35:35">
       <c r="AI75" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="35:35">
       <c r="AI76" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="35:35">
       <c r="AI77" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="35:35">
       <c r="AI78" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="35:35">
       <c r="AI79" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="35:35">
       <c r="AI80" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="35:35">
       <c r="AI81" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="35:35">
       <c r="AI82" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="35:35">
       <c r="AI83" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="35:35">
       <c r="AI84" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="35:35">
       <c r="AI85" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="35:35">
       <c r="AI86" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="35:35">
       <c r="AI87" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="35:35">
       <c r="AI88" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="35:35">
       <c r="AI89" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="35:35">
       <c r="AI90" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="35:35">
       <c r="AI91" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="35:35">
       <c r="AI92" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="35:35">
       <c r="AI93" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="35:35">
       <c r="AI94" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="35:35">
       <c r="AI95" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="35:35">
       <c r="AI96" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="35:35">
       <c r="AI97" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="35:35">
       <c r="AI98" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="35:35">
       <c r="AI99" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="35:35">
       <c r="AI100" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="35:35">
       <c r="AI101" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="35:35">
       <c r="AI102" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="35:35">
       <c r="AI103" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="35:35">
       <c r="AI104" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="35:35">
       <c r="AI105" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="35:35">
       <c r="AI106" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="35:35">
       <c r="AI107" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="35:35">
       <c r="AI108" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="35:35">
       <c r="AI109" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="35:35">
       <c r="AI110" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="35:35">
       <c r="AI111" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="35:35">
       <c r="AI112" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="35:35">
       <c r="AI113" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="35:35">
       <c r="AI114" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="35:35">
       <c r="AI115" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="35:35">
       <c r="AI116" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="35:35">
       <c r="AI117" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="35:35">
       <c r="AI118" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="35:35">
       <c r="AI119" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="35:35">
       <c r="AI120" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="35:35">
       <c r="AI121" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="35:35">
       <c r="AI122" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="35:35">
       <c r="AI123" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="35:35">
       <c r="AI124" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="35:35">
       <c r="AI125" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="35:35">
       <c r="AI126" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" spans="35:35">
       <c r="AI127" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="35:35">
       <c r="AI128" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="35:35">
       <c r="AI129" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="35:35">
       <c r="AI130" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="131" spans="35:35">
       <c r="AI131" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="132" spans="35:35">
       <c r="AI132" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="35:35">
       <c r="AI133" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="35:35">
       <c r="AI134" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="35:35">
       <c r="AI135" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="35:35">
       <c r="AI136" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="35:35">
       <c r="AI137" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="35:35">
       <c r="AI138" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="35:35">
       <c r="AI139" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="35:35">
       <c r="AI140" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="35:35">
       <c r="AI141" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="142" spans="35:35">
       <c r="AI142" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143" spans="35:35">
       <c r="AI143" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144" spans="35:35">
       <c r="AI144" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="35:35">
       <c r="AI145" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="146" spans="35:35">
       <c r="AI146" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="35:35">
       <c r="AI147" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="35:35">
       <c r="AI148" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="35:35">
       <c r="AI149" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="35:35">
       <c r="AI150" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="35:35">
       <c r="AI151" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="35:35">
       <c r="AI152" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="35:35">
       <c r="AI153" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="154" spans="35:35">
       <c r="AI154" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="35:35">
       <c r="AI155" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="156" spans="35:35">
       <c r="AI156" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="35:35">
       <c r="AI157" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="35:35">
       <c r="AI158" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="35:35">
       <c r="AI159" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" spans="35:35">
       <c r="AI160" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="161" spans="35:35">
       <c r="AI161" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="162" spans="35:35">
       <c r="AI162" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="163" spans="35:35">
       <c r="AI163" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="35:35">
       <c r="AI164" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="165" spans="35:35">
       <c r="AI165" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="166" spans="35:35">
       <c r="AI166" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="35:35">
       <c r="AI167" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="35:35">
       <c r="AI168" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="169" spans="35:35">
       <c r="AI169" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="35:35">
       <c r="AI170" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="35:35">
       <c r="AI171" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="172" spans="35:35">
       <c r="AI172" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="173" spans="35:35">
       <c r="AI173" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="35:35">
       <c r="AI174" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="175" spans="35:35">
       <c r="AI175" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="35:35">
       <c r="AI176" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="177" spans="35:35">
       <c r="AI177" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="35:35">
       <c r="AI178" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="35:35">
       <c r="AI179" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="35:35">
       <c r="AI180" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="181" spans="35:35">
       <c r="AI181" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="35:35">
       <c r="AI182" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="183" spans="35:35">
       <c r="AI183" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="184" spans="35:35">
       <c r="AI184" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="185" spans="35:35">
       <c r="AI185" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="186" spans="35:35">
       <c r="AI186" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="187" spans="35:35">
       <c r="AI187" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="188" spans="35:35">
       <c r="AI188" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="35:35">
       <c r="AI189" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="35:35">
       <c r="AI190" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="35:35">
       <c r="AI191" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="192" spans="35:35">
       <c r="AI192" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="193" spans="35:35">
       <c r="AI193" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="194" spans="35:35">
       <c r="AI194" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="195" spans="35:35">
       <c r="AI195" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="196" spans="35:35">
       <c r="AI196" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="197" spans="35:35">
       <c r="AI197" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="35:35">
       <c r="AI198" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="35:35">
       <c r="AI199" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200" spans="35:35">
       <c r="AI200" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="35:35">
       <c r="AI201" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="35:35">
       <c r="AI202" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="35:35">
       <c r="AI203" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="204" spans="35:35">
       <c r="AI204" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="205" spans="35:35">
       <c r="AI205" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="35:35">
       <c r="AI206" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="35:35">
       <c r="AI207" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="35:35">
       <c r="AI208" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="35:35">
       <c r="AI209" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="35:35">
       <c r="AI210" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="35:35">
       <c r="AI211" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="212" spans="35:35">
       <c r="AI212" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="213" spans="35:35">
       <c r="AI213" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="214" spans="35:35">
       <c r="AI214" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="215" spans="35:35">
       <c r="AI215" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="216" spans="35:35">
       <c r="AI216" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="217" spans="35:35">
       <c r="AI217" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="35:35">
       <c r="AI218" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" spans="35:35">
       <c r="AI219" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="220" spans="35:35">
       <c r="AI220" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="35:35">
       <c r="AI221" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="35:35">
       <c r="AI222" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="223" spans="35:35">
       <c r="AI223" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="35:35">
       <c r="AI224" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="225" spans="35:35">
       <c r="AI225" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="226" spans="35:35">
       <c r="AI226" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="35:35">
       <c r="AI227" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="228" spans="35:35">
       <c r="AI228" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="229" spans="35:35">
       <c r="AI229" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="230" spans="35:35">
       <c r="AI230" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="231" spans="35:35">
       <c r="AI231" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="232" spans="35:35">
       <c r="AI232" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="233" spans="35:35">
       <c r="AI233" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="234" spans="35:35">
       <c r="AI234" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="235" spans="35:35">
       <c r="AI235" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="35:35">
       <c r="AI236" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="237" spans="35:35">
       <c r="AI237" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="238" spans="35:35">
       <c r="AI238" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="239" spans="35:35">
       <c r="AI239" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="240" spans="35:35">
       <c r="AI240" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="241" spans="35:35">
       <c r="AI241" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="242" spans="35:35">
       <c r="AI242" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="243" spans="35:35">
       <c r="AI243" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="244" spans="35:35">
       <c r="AI244" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="35:35">
       <c r="AI245" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="246" spans="35:35">
       <c r="AI246" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="35:35">
       <c r="AI247" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="248" spans="35:35">
       <c r="AI248" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="249" spans="35:35">
       <c r="AI249" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="250" spans="35:35">
       <c r="AI250" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="251" spans="35:35">
       <c r="AI251" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="252" spans="35:35">
       <c r="AI252" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="253" spans="35:35">
       <c r="AI253" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="254" spans="35:35">
       <c r="AI254" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="35:35">
       <c r="AI255" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="256" spans="35:35">
       <c r="AI256" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="257" spans="35:35">
       <c r="AI257" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="258" spans="35:35">
       <c r="AI258" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="259" spans="35:35">
       <c r="AI259" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="260" spans="35:35">
       <c r="AI260" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="261" spans="35:35">
       <c r="AI261" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="262" spans="35:35">
       <c r="AI262" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="263" spans="35:35">
       <c r="AI263" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="264" spans="35:35">
       <c r="AI264" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="265" spans="35:35">
       <c r="AI265" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="266" spans="35:35">
       <c r="AI266" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267" spans="35:35">
       <c r="AI267" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="268" spans="35:35">
       <c r="AI268" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="269" spans="35:35">
       <c r="AI269" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="270" spans="35:35">
       <c r="AI270" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="271" spans="35:35">
       <c r="AI271" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="272" spans="35:35">
       <c r="AI272" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="273" spans="35:35">
       <c r="AI273" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="274" spans="35:35">
       <c r="AI274" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="275" spans="35:35">
       <c r="AI275" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="276" spans="35:35">
       <c r="AI276" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="277" spans="35:35">
       <c r="AI277" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="278" spans="35:35">
       <c r="AI278" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="35:35">
       <c r="AI279" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="35:35">
       <c r="AI280" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="281" spans="35:35">
       <c r="AI281" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="282" spans="35:35">
       <c r="AI282" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="283" spans="35:35">
       <c r="AI283" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="35:35">
       <c r="AI284" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="285" spans="35:35">
       <c r="AI285" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="35:35">
       <c r="AI286" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="287" spans="35:35">
       <c r="AI287" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -884,8 +884,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1893,15 +1892,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1913,8 +1910,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -1962,8 +1958,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>aerobic</t>
@@ -1987,15 +1982,13 @@
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -2019,8 +2012,7 @@
     <t>biochemical oxygen demand</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) A measure of the relative oxygen-depletion effect of a waste contaminant Units: 
-                    </t>
+    <t>(Optional) A measure of the relative oxygen-depletion effect of a waste contaminant (Units: mg/L (over 5 days at 20C))</t>
   </si>
   <si>
     <t>chemical oxygen demand</t>
@@ -2053,8 +2045,7 @@
     <t>sludge retention time</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The time activated sludge remains in reactor Units: 
-                    </t>
+    <t>(Optional) The time activated sludge remains in reactor (Units: weeks)</t>
   </si>
   <si>
     <t>tertiary treatment</t>
@@ -2078,15 +2069,13 @@
     <t>alkalinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate Units: 
-                    </t>
+    <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
     <t>industrial effluent percent</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Percentage of industrial effluents received by wastewater treatment plant Units: 
-                    </t>
+    <t>(Optional) Percentage of industrial effluents received by wastewater treatment plant (Units: %)</t>
   </si>
   <si>
     <t>sewage type</t>
@@ -2104,8 +2093,7 @@
     <t>temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature of the sample at time of sampling Units: 
-                    </t>
+    <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
     <t>pH</t>
@@ -2117,99 +2105,85 @@
     <t>efficiency percent</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Percentage of volatile solids removed from the anaerobic digestor Units: 
-                    </t>
+    <t>(Optional) Percentage of volatile solids removed from the anaerobic digestor (Units: %)</t>
   </si>
   <si>
     <t>emulsions</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Amount or concentration of substances such as paints, adhesives, mayonnaise, hair colorants, emulsified oils, etc.; can include multiple emulsion types Units: 
-                    </t>
+    <t>(Optional) Amount or concentration of substances such as paints, adhesives, mayonnaise, hair colorants, emulsified oils, etc.; can include multiple emulsion types (Units: µg/L)</t>
   </si>
   <si>
     <t>gaseous substances</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Amount or concentration of substances such as hydrogen sulfide, carbon dioxide, methane, etc.; can include multiple substances Units: 
-                    </t>
+    <t>(Optional) Amount or concentration of substances such as hydrogen sulfide, carbon dioxide, methane, etc.; can include multiple substances (Units: µmol/L)</t>
   </si>
   <si>
     <t>inorganic particles</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles Units: 
-                    </t>
+    <t>(Optional) Concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles (Units: mol/L)</t>
   </si>
   <si>
     <t>organic particles</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of particles such as faeces, hairs, food, vomit, paper fibers, plant material, humus, etc. Units: 
-                    </t>
+    <t>(Optional) Concentration of particles such as faeces, hairs, food, vomit, paper fibers, plant material, humus, etc. (Units: g/L)</t>
   </si>
   <si>
     <t>soluble inorganic material</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc. Units: 
-                    </t>
+    <t>(Optional) Concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc. (Units: parts/million)</t>
   </si>
   <si>
     <t>soluble organic material</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc. Units: 
-                    </t>
+    <t>(Optional) Concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc. (Units: parts/million)</t>
   </si>
   <si>
     <t>suspended solids</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances Units: 
-                    </t>
+    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million)</t>
   </si>
   <si>
     <t>total phosphate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total amount or concentration of phosphate Units: 
-                    </t>
+    <t>(Optional) Total amount or concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrate Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrate (Units: µmol/L)</t>
   </si>
   <si>
     <t>phosphate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phosphate Units: 
-                    </t>
+    <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
     <t>salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. Units: 
-                    </t>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
     <t>sodium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Sodium concentration Units: 
-                    </t>
+    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
     <t>total nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total nitrogen content of the sample Units: 
-                    </t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
   </si>
   <si>
     <t>subspecific genetic lineage</t>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -104,7 +104,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="781">
   <si>
     <t>alias</t>
   </si>
@@ -1310,12 +1310,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2367,12 +2367,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>depth</t>
@@ -3898,7 +3892,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CR2"/>
+  <dimension ref="A1:CQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3907,7 +3901,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96">
+    <row r="1" spans="1:95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4193,11 +4187,8 @@
       <c r="CQ1" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="CR1" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="2" spans="1:96" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:95" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4482,9 +4473,6 @@
       </c>
       <c r="CQ2" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="782">
   <si>
     <t>alias</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3909,570 +3912,570 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:95" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -4510,1583 +4513,1583 @@
   <sheetData>
     <row r="1" spans="5:29">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="W1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AC1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="5:29">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AC2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="5:29">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AC3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="5:29">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="5:29">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="5:29">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="5:29">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="5:29">
       <c r="E8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="5:29">
       <c r="E9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="5:29">
       <c r="E10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="5:29">
       <c r="E11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AC11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="5:29">
       <c r="E12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="5:29">
       <c r="E13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AC13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="5:29">
       <c r="E14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AC14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="5:29">
       <c r="E15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AC15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="5:29">
       <c r="E16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AC16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="5:29">
       <c r="E17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="5:29">
       <c r="E18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="5:29">
       <c r="E19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="5:29">
       <c r="E20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="5:29">
       <c r="E21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="5:29">
       <c r="E22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="5:29">
       <c r="E23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="5:29">
       <c r="E24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="5:29">
       <c r="E25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="5:29">
       <c r="E26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="5:29">
       <c r="E27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="5:29">
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="5:29">
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC29" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="5:29">
       <c r="E30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC30" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="5:29">
       <c r="AC31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="5:29">
       <c r="AC32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="29:29">
       <c r="AC33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="29:29">
       <c r="AC34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="29:29">
       <c r="AC35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="29:29">
       <c r="AC36" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="29:29">
       <c r="AC37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="29:29">
       <c r="AC38" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="29:29">
       <c r="AC39" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="29:29">
       <c r="AC40" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="29:29">
       <c r="AC41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="29:29">
       <c r="AC42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="29:29">
       <c r="AC43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="29:29">
       <c r="AC44" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="29:29">
       <c r="AC45" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="29:29">
       <c r="AC46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="29:29">
       <c r="AC47" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="29:29">
       <c r="AC48" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="29:29">
       <c r="AC49" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="29:29">
       <c r="AC50" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="29:29">
       <c r="AC51" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="29:29">
       <c r="AC52" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="29:29">
       <c r="AC53" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="29:29">
       <c r="AC54" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="29:29">
       <c r="AC55" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="29:29">
       <c r="AC56" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="29:29">
       <c r="AC57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="29:29">
       <c r="AC58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="29:29">
       <c r="AC59" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="29:29">
       <c r="AC60" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="29:29">
       <c r="AC61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="29:29">
       <c r="AC62" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="29:29">
       <c r="AC63" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="29:29">
       <c r="AC64" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="29:29">
       <c r="AC65" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="29:29">
       <c r="AC66" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="29:29">
       <c r="AC67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="29:29">
       <c r="AC68" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="29:29">
       <c r="AC69" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="29:29">
       <c r="AC70" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="29:29">
       <c r="AC71" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="29:29">
       <c r="AC72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="29:29">
       <c r="AC73" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="29:29">
       <c r="AC74" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="29:29">
       <c r="AC75" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="29:29">
       <c r="AC76" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="29:29">
       <c r="AC77" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="29:29">
       <c r="AC78" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="29:29">
       <c r="AC79" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="29:29">
       <c r="AC80" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="29:29">
       <c r="AC81" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="29:29">
       <c r="AC82" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="29:29">
       <c r="AC83" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="29:29">
       <c r="AC84" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="29:29">
       <c r="AC85" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="29:29">
       <c r="AC86" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="29:29">
       <c r="AC87" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="29:29">
       <c r="AC88" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89" spans="29:29">
       <c r="AC89" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="29:29">
       <c r="AC90" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="29:29">
       <c r="AC91" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="29:29">
       <c r="AC92" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="29:29">
       <c r="AC93" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="29:29">
       <c r="AC94" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="29:29">
       <c r="AC95" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="29:29">
       <c r="AC96" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="29:29">
       <c r="AC97" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="29:29">
       <c r="AC98" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="29:29">
       <c r="AC99" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="29:29">
       <c r="AC100" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="29:29">
       <c r="AC101" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="29:29">
       <c r="AC102" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="29:29">
       <c r="AC103" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="29:29">
       <c r="AC104" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="29:29">
       <c r="AC105" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="29:29">
       <c r="AC106" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="29:29">
       <c r="AC107" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="29:29">
       <c r="AC108" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="29:29">
       <c r="AC109" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110" spans="29:29">
       <c r="AC110" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" spans="29:29">
       <c r="AC111" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="29:29">
       <c r="AC112" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="29:29">
       <c r="AC113" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="29:29">
       <c r="AC114" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="29:29">
       <c r="AC115" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="29:29">
       <c r="AC116" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="29:29">
       <c r="AC117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="29:29">
       <c r="AC118" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" spans="29:29">
       <c r="AC119" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="29:29">
       <c r="AC120" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="29:29">
       <c r="AC121" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="29:29">
       <c r="AC122" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="29:29">
       <c r="AC123" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="29:29">
       <c r="AC124" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="29:29">
       <c r="AC125" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="29:29">
       <c r="AC126" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="29:29">
       <c r="AC127" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="29:29">
       <c r="AC128" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129" spans="29:29">
       <c r="AC129" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" spans="29:29">
       <c r="AC130" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="29:29">
       <c r="AC131" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="29:29">
       <c r="AC132" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" spans="29:29">
       <c r="AC133" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="29:29">
       <c r="AC134" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="29:29">
       <c r="AC135" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" spans="29:29">
       <c r="AC136" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="29:29">
       <c r="AC137" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="29:29">
       <c r="AC138" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139" spans="29:29">
       <c r="AC139" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140" spans="29:29">
       <c r="AC140" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="29:29">
       <c r="AC141" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="142" spans="29:29">
       <c r="AC142" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="29:29">
       <c r="AC143" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="144" spans="29:29">
       <c r="AC144" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="145" spans="29:29">
       <c r="AC145" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146" spans="29:29">
       <c r="AC146" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="29:29">
       <c r="AC147" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="148" spans="29:29">
       <c r="AC148" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149" spans="29:29">
       <c r="AC149" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="150" spans="29:29">
       <c r="AC150" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="29:29">
       <c r="AC151" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152" spans="29:29">
       <c r="AC152" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="153" spans="29:29">
       <c r="AC153" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="154" spans="29:29">
       <c r="AC154" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="155" spans="29:29">
       <c r="AC155" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156" spans="29:29">
       <c r="AC156" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" spans="29:29">
       <c r="AC157" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="158" spans="29:29">
       <c r="AC158" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="159" spans="29:29">
       <c r="AC159" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="160" spans="29:29">
       <c r="AC160" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="161" spans="29:29">
       <c r="AC161" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="29:29">
       <c r="AC162" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163" spans="29:29">
       <c r="AC163" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="164" spans="29:29">
       <c r="AC164" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="29:29">
       <c r="AC165" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="29:29">
       <c r="AC166" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="29:29">
       <c r="AC167" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="29:29">
       <c r="AC168" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="29:29">
       <c r="AC169" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="29:29">
       <c r="AC170" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="171" spans="29:29">
       <c r="AC171" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="172" spans="29:29">
       <c r="AC172" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173" spans="29:29">
       <c r="AC173" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174" spans="29:29">
       <c r="AC174" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="175" spans="29:29">
       <c r="AC175" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="176" spans="29:29">
       <c r="AC176" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="177" spans="29:29">
       <c r="AC177" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="178" spans="29:29">
       <c r="AC178" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="179" spans="29:29">
       <c r="AC179" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="180" spans="29:29">
       <c r="AC180" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="181" spans="29:29">
       <c r="AC181" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="182" spans="29:29">
       <c r="AC182" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183" spans="29:29">
       <c r="AC183" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="184" spans="29:29">
       <c r="AC184" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="185" spans="29:29">
       <c r="AC185" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="186" spans="29:29">
       <c r="AC186" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="29:29">
       <c r="AC187" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="29:29">
       <c r="AC188" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" spans="29:29">
       <c r="AC189" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="190" spans="29:29">
       <c r="AC190" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="191" spans="29:29">
       <c r="AC191" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="192" spans="29:29">
       <c r="AC192" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="193" spans="29:29">
       <c r="AC193" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="29:29">
       <c r="AC194" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="195" spans="29:29">
       <c r="AC195" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="196" spans="29:29">
       <c r="AC196" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="197" spans="29:29">
       <c r="AC197" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="198" spans="29:29">
       <c r="AC198" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="199" spans="29:29">
       <c r="AC199" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="200" spans="29:29">
       <c r="AC200" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="201" spans="29:29">
       <c r="AC201" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="202" spans="29:29">
       <c r="AC202" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="203" spans="29:29">
       <c r="AC203" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="29:29">
       <c r="AC204" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="29:29">
       <c r="AC205" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206" spans="29:29">
       <c r="AC206" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="207" spans="29:29">
       <c r="AC207" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="29:29">
       <c r="AC208" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="209" spans="29:29">
       <c r="AC209" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210" spans="29:29">
       <c r="AC210" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="211" spans="29:29">
       <c r="AC211" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="29:29">
       <c r="AC212" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="213" spans="29:29">
       <c r="AC213" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="29:29">
       <c r="AC214" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="215" spans="29:29">
       <c r="AC215" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="216" spans="29:29">
       <c r="AC216" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="29:29">
       <c r="AC217" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="218" spans="29:29">
       <c r="AC218" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219" spans="29:29">
       <c r="AC219" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="220" spans="29:29">
       <c r="AC220" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="29:29">
       <c r="AC221" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="222" spans="29:29">
       <c r="AC222" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="223" spans="29:29">
       <c r="AC223" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="224" spans="29:29">
       <c r="AC224" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="225" spans="29:29">
       <c r="AC225" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="226" spans="29:29">
       <c r="AC226" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="227" spans="29:29">
       <c r="AC227" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="228" spans="29:29">
       <c r="AC228" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="229" spans="29:29">
       <c r="AC229" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="230" spans="29:29">
       <c r="AC230" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="231" spans="29:29">
       <c r="AC231" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="232" spans="29:29">
       <c r="AC232" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="233" spans="29:29">
       <c r="AC233" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="234" spans="29:29">
       <c r="AC234" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235" spans="29:29">
       <c r="AC235" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="236" spans="29:29">
       <c r="AC236" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="237" spans="29:29">
       <c r="AC237" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="238" spans="29:29">
       <c r="AC238" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="239" spans="29:29">
       <c r="AC239" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="240" spans="29:29">
       <c r="AC240" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241" spans="29:29">
       <c r="AC241" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="242" spans="29:29">
       <c r="AC242" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="243" spans="29:29">
       <c r="AC243" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="244" spans="29:29">
       <c r="AC244" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="245" spans="29:29">
       <c r="AC245" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="246" spans="29:29">
       <c r="AC246" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="247" spans="29:29">
       <c r="AC247" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="248" spans="29:29">
       <c r="AC248" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="249" spans="29:29">
       <c r="AC249" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="250" spans="29:29">
       <c r="AC250" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="251" spans="29:29">
       <c r="AC251" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="252" spans="29:29">
       <c r="AC252" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="29:29">
       <c r="AC253" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="254" spans="29:29">
       <c r="AC254" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="255" spans="29:29">
       <c r="AC255" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="256" spans="29:29">
       <c r="AC256" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="257" spans="29:29">
       <c r="AC257" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="258" spans="29:29">
       <c r="AC258" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="259" spans="29:29">
       <c r="AC259" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="260" spans="29:29">
       <c r="AC260" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="261" spans="29:29">
       <c r="AC261" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="262" spans="29:29">
       <c r="AC262" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="263" spans="29:29">
       <c r="AC263" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="264" spans="29:29">
       <c r="AC264" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="265" spans="29:29">
       <c r="AC265" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="266" spans="29:29">
       <c r="AC266" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="267" spans="29:29">
       <c r="AC267" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="268" spans="29:29">
       <c r="AC268" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="269" spans="29:29">
       <c r="AC269" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="270" spans="29:29">
       <c r="AC270" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="271" spans="29:29">
       <c r="AC271" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="272" spans="29:29">
       <c r="AC272" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="273" spans="29:29">
       <c r="AC273" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="274" spans="29:29">
       <c r="AC274" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="275" spans="29:29">
       <c r="AC275" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="276" spans="29:29">
       <c r="AC276" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="277" spans="29:29">
       <c r="AC277" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="278" spans="29:29">
       <c r="AC278" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="279" spans="29:29">
       <c r="AC279" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="280" spans="29:29">
       <c r="AC280" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="281" spans="29:29">
       <c r="AC281" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="282" spans="29:29">
       <c r="AC282" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="283" spans="29:29">
       <c r="AC283" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="284" spans="29:29">
       <c r="AC284" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="285" spans="29:29">
       <c r="AC285" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="286" spans="29:29">
       <c r="AC286" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="287" spans="29:29">
       <c r="AC287" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="288" spans="29:29">
       <c r="AC288" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -116,7 +116,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -134,7 +134,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AC$1:$AC$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AM$1:$AM$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="783">
   <si>
     <t>alias</t>
   </si>
@@ -1121,6 +1121,66 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>organism count</t>
+  </si>
+  <si>
+    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1949,6 +2009,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1989,66 +2052,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>organism count</t>
-  </si>
-  <si>
-    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>biochemical oxygen demand</t>
@@ -3990,205 +3993,205 @@
         <v>359</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>649</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>651</v>
+        <v>363</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>653</v>
+        <v>365</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>655</v>
+        <v>367</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>657</v>
+        <v>369</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>661</v>
+        <v>373</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>663</v>
+        <v>375</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:95" ht="150" customHeight="1">
@@ -4277,205 +4280,205 @@
         <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>650</v>
+        <v>362</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>652</v>
+        <v>364</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>654</v>
+        <v>366</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>656</v>
+        <v>368</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>658</v>
+        <v>370</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>660</v>
+        <v>372</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>662</v>
+        <v>374</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>664</v>
+        <v>376</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -4495,7 +4498,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -4505,13 +4508,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AC288"/>
+  <dimension ref="E1:AM289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:29">
+    <row r="1" spans="5:39">
       <c r="E1" t="s">
         <v>266</v>
       </c>
@@ -4527,11 +4530,11 @@
       <c r="W1" t="s">
         <v>346</v>
       </c>
-      <c r="AC1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="5:29">
+      <c r="AM1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="5:39">
       <c r="E2" t="s">
         <v>267</v>
       </c>
@@ -4547,11 +4550,11 @@
       <c r="W2" t="s">
         <v>347</v>
       </c>
-      <c r="AC2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="5:29">
+      <c r="AM2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="5:39">
       <c r="E3" t="s">
         <v>268</v>
       </c>
@@ -4564,11 +4567,11 @@
       <c r="W3" t="s">
         <v>348</v>
       </c>
-      <c r="AC3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="5:29">
+      <c r="AM3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="5:39">
       <c r="E4" t="s">
         <v>269</v>
       </c>
@@ -4578,11 +4581,11 @@
       <c r="H4" t="s">
         <v>310</v>
       </c>
-      <c r="AC4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="5:29">
+      <c r="AM4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="5:39">
       <c r="E5" t="s">
         <v>270</v>
       </c>
@@ -4592,1504 +4595,1509 @@
       <c r="H5" t="s">
         <v>311</v>
       </c>
-      <c r="AC5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="5:29">
+      <c r="AM5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="5:39">
       <c r="E6" t="s">
         <v>271</v>
       </c>
       <c r="H6" t="s">
         <v>312</v>
       </c>
-      <c r="AC6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="5:29">
+      <c r="AM6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="5:39">
       <c r="E7" t="s">
         <v>272</v>
       </c>
       <c r="H7" t="s">
         <v>313</v>
       </c>
-      <c r="AC7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="5:29">
+      <c r="AM7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="5:39">
       <c r="E8" t="s">
         <v>273</v>
       </c>
-      <c r="AC8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="5:29">
+      <c r="AM8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="5:39">
       <c r="E9" t="s">
         <v>274</v>
       </c>
-      <c r="AC9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="5:29">
+      <c r="AM9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="5:39">
       <c r="E10" t="s">
         <v>275</v>
       </c>
-      <c r="AC10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="5:29">
+      <c r="AM10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="5:39">
       <c r="E11" t="s">
         <v>276</v>
       </c>
-      <c r="AC11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="5:29">
+      <c r="AM11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="5:39">
       <c r="E12" t="s">
         <v>277</v>
       </c>
-      <c r="AC12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="5:29">
+      <c r="AM12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="5:39">
       <c r="E13" t="s">
         <v>278</v>
       </c>
-      <c r="AC13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="5:29">
+      <c r="AM13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="5:39">
       <c r="E14" t="s">
         <v>279</v>
       </c>
-      <c r="AC14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="5:29">
+      <c r="AM14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="5:39">
       <c r="E15" t="s">
         <v>280</v>
       </c>
-      <c r="AC15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="5:29">
+      <c r="AM15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="5:39">
       <c r="E16" t="s">
         <v>281</v>
       </c>
-      <c r="AC16" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="17" spans="5:29">
+      <c r="AM16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="5:39">
       <c r="E17" t="s">
         <v>282</v>
       </c>
-      <c r="AC17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="18" spans="5:29">
+      <c r="AM17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="5:39">
       <c r="E18" t="s">
         <v>283</v>
       </c>
-      <c r="AC18" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="19" spans="5:29">
+      <c r="AM18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="5:39">
       <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="AC19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="20" spans="5:29">
+      <c r="AM19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="5:39">
       <c r="E20" t="s">
         <v>285</v>
       </c>
-      <c r="AC20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="5:29">
+      <c r="AM20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="5:39">
       <c r="E21" t="s">
         <v>286</v>
       </c>
-      <c r="AC21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="22" spans="5:29">
+      <c r="AM21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="5:39">
       <c r="E22" t="s">
         <v>287</v>
       </c>
-      <c r="AC22" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="5:29">
+      <c r="AM22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="5:39">
       <c r="E23" t="s">
         <v>288</v>
       </c>
-      <c r="AC23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="5:29">
+      <c r="AM23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="5:39">
       <c r="E24" t="s">
         <v>289</v>
       </c>
-      <c r="AC24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="5:29">
+      <c r="AM24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="5:39">
       <c r="E25" t="s">
         <v>290</v>
       </c>
-      <c r="AC25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="5:29">
+      <c r="AM25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="5:39">
       <c r="E26" t="s">
         <v>291</v>
       </c>
-      <c r="AC26" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="5:29">
+      <c r="AM26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="5:39">
       <c r="E27" t="s">
         <v>292</v>
       </c>
-      <c r="AC27" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="5:29">
+      <c r="AM27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="5:39">
       <c r="E28" t="s">
         <v>293</v>
       </c>
-      <c r="AC28" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" spans="5:29">
+      <c r="AM28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="5:39">
       <c r="E29" t="s">
         <v>294</v>
       </c>
-      <c r="AC29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="30" spans="5:29">
+      <c r="AM29" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="5:39">
       <c r="E30" t="s">
         <v>295</v>
       </c>
-      <c r="AC30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="5:29">
-      <c r="AC31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32" spans="5:29">
-      <c r="AC32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="33" spans="29:29">
-      <c r="AC33" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="34" spans="29:29">
-      <c r="AC34" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="35" spans="29:29">
-      <c r="AC35" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="36" spans="29:29">
-      <c r="AC36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="37" spans="29:29">
-      <c r="AC37" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="38" spans="29:29">
-      <c r="AC38" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="39" spans="29:29">
-      <c r="AC39" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="40" spans="29:29">
-      <c r="AC40" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="41" spans="29:29">
-      <c r="AC41" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="42" spans="29:29">
-      <c r="AC42" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="43" spans="29:29">
-      <c r="AC43" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="44" spans="29:29">
-      <c r="AC44" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="45" spans="29:29">
-      <c r="AC45" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="46" spans="29:29">
-      <c r="AC46" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="47" spans="29:29">
-      <c r="AC47" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="48" spans="29:29">
-      <c r="AC48" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="49" spans="29:29">
-      <c r="AC49" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="50" spans="29:29">
-      <c r="AC50" t="s">
+      <c r="AM30" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="29:29">
-      <c r="AC51" t="s">
+    <row r="31" spans="5:39">
+      <c r="AM31" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="52" spans="29:29">
-      <c r="AC52" t="s">
+    <row r="32" spans="5:39">
+      <c r="AM32" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="29:29">
-      <c r="AC53" t="s">
+    <row r="33" spans="39:39">
+      <c r="AM33" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="54" spans="29:29">
-      <c r="AC54" t="s">
+    <row r="34" spans="39:39">
+      <c r="AM34" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="29:29">
-      <c r="AC55" t="s">
+    <row r="35" spans="39:39">
+      <c r="AM35" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="29:29">
-      <c r="AC56" t="s">
+    <row r="36" spans="39:39">
+      <c r="AM36" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="57" spans="29:29">
-      <c r="AC57" t="s">
+    <row r="37" spans="39:39">
+      <c r="AM37" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="58" spans="29:29">
-      <c r="AC58" t="s">
+    <row r="38" spans="39:39">
+      <c r="AM38" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="59" spans="29:29">
-      <c r="AC59" t="s">
+    <row r="39" spans="39:39">
+      <c r="AM39" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="29:29">
-      <c r="AC60" t="s">
+    <row r="40" spans="39:39">
+      <c r="AM40" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="61" spans="29:29">
-      <c r="AC61" t="s">
+    <row r="41" spans="39:39">
+      <c r="AM41" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="62" spans="29:29">
-      <c r="AC62" t="s">
+    <row r="42" spans="39:39">
+      <c r="AM42" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="29:29">
-      <c r="AC63" t="s">
+    <row r="43" spans="39:39">
+      <c r="AM43" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="64" spans="29:29">
-      <c r="AC64" t="s">
+    <row r="44" spans="39:39">
+      <c r="AM44" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="29:29">
-      <c r="AC65" t="s">
+    <row r="45" spans="39:39">
+      <c r="AM45" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="66" spans="29:29">
-      <c r="AC66" t="s">
+    <row r="46" spans="39:39">
+      <c r="AM46" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="67" spans="29:29">
-      <c r="AC67" t="s">
+    <row r="47" spans="39:39">
+      <c r="AM47" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="29:29">
-      <c r="AC68" t="s">
+    <row r="48" spans="39:39">
+      <c r="AM48" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="29:29">
-      <c r="AC69" t="s">
+    <row r="49" spans="39:39">
+      <c r="AM49" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="29:29">
-      <c r="AC70" t="s">
+    <row r="50" spans="39:39">
+      <c r="AM50" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="29:29">
-      <c r="AC71" t="s">
+    <row r="51" spans="39:39">
+      <c r="AM51" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="72" spans="29:29">
-      <c r="AC72" t="s">
+    <row r="52" spans="39:39">
+      <c r="AM52" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="29:29">
-      <c r="AC73" t="s">
+    <row r="53" spans="39:39">
+      <c r="AM53" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="74" spans="29:29">
-      <c r="AC74" t="s">
+    <row r="54" spans="39:39">
+      <c r="AM54" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="75" spans="29:29">
-      <c r="AC75" t="s">
+    <row r="55" spans="39:39">
+      <c r="AM55" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="76" spans="29:29">
-      <c r="AC76" t="s">
+    <row r="56" spans="39:39">
+      <c r="AM56" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="77" spans="29:29">
-      <c r="AC77" t="s">
+    <row r="57" spans="39:39">
+      <c r="AM57" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="78" spans="29:29">
-      <c r="AC78" t="s">
+    <row r="58" spans="39:39">
+      <c r="AM58" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="79" spans="29:29">
-      <c r="AC79" t="s">
+    <row r="59" spans="39:39">
+      <c r="AM59" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="80" spans="29:29">
-      <c r="AC80" t="s">
+    <row r="60" spans="39:39">
+      <c r="AM60" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="81" spans="29:29">
-      <c r="AC81" t="s">
+    <row r="61" spans="39:39">
+      <c r="AM61" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="82" spans="29:29">
-      <c r="AC82" t="s">
+    <row r="62" spans="39:39">
+      <c r="AM62" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="83" spans="29:29">
-      <c r="AC83" t="s">
+    <row r="63" spans="39:39">
+      <c r="AM63" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="84" spans="29:29">
-      <c r="AC84" t="s">
+    <row r="64" spans="39:39">
+      <c r="AM64" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="29:29">
-      <c r="AC85" t="s">
+    <row r="65" spans="39:39">
+      <c r="AM65" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="86" spans="29:29">
-      <c r="AC86" t="s">
+    <row r="66" spans="39:39">
+      <c r="AM66" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="87" spans="29:29">
-      <c r="AC87" t="s">
+    <row r="67" spans="39:39">
+      <c r="AM67" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="88" spans="29:29">
-      <c r="AC88" t="s">
+    <row r="68" spans="39:39">
+      <c r="AM68" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="89" spans="29:29">
-      <c r="AC89" t="s">
+    <row r="69" spans="39:39">
+      <c r="AM69" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="90" spans="29:29">
-      <c r="AC90" t="s">
+    <row r="70" spans="39:39">
+      <c r="AM70" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="29:29">
-      <c r="AC91" t="s">
+    <row r="71" spans="39:39">
+      <c r="AM71" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="92" spans="29:29">
-      <c r="AC92" t="s">
+    <row r="72" spans="39:39">
+      <c r="AM72" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="93" spans="29:29">
-      <c r="AC93" t="s">
+    <row r="73" spans="39:39">
+      <c r="AM73" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="94" spans="29:29">
-      <c r="AC94" t="s">
+    <row r="74" spans="39:39">
+      <c r="AM74" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="95" spans="29:29">
-      <c r="AC95" t="s">
+    <row r="75" spans="39:39">
+      <c r="AM75" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="96" spans="29:29">
-      <c r="AC96" t="s">
+    <row r="76" spans="39:39">
+      <c r="AM76" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="97" spans="29:29">
-      <c r="AC97" t="s">
+    <row r="77" spans="39:39">
+      <c r="AM77" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="98" spans="29:29">
-      <c r="AC98" t="s">
+    <row r="78" spans="39:39">
+      <c r="AM78" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="99" spans="29:29">
-      <c r="AC99" t="s">
+    <row r="79" spans="39:39">
+      <c r="AM79" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="100" spans="29:29">
-      <c r="AC100" t="s">
+    <row r="80" spans="39:39">
+      <c r="AM80" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="29:29">
-      <c r="AC101" t="s">
+    <row r="81" spans="39:39">
+      <c r="AM81" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="102" spans="29:29">
-      <c r="AC102" t="s">
+    <row r="82" spans="39:39">
+      <c r="AM82" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="103" spans="29:29">
-      <c r="AC103" t="s">
+    <row r="83" spans="39:39">
+      <c r="AM83" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="104" spans="29:29">
-      <c r="AC104" t="s">
+    <row r="84" spans="39:39">
+      <c r="AM84" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="105" spans="29:29">
-      <c r="AC105" t="s">
+    <row r="85" spans="39:39">
+      <c r="AM85" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="106" spans="29:29">
-      <c r="AC106" t="s">
+    <row r="86" spans="39:39">
+      <c r="AM86" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="107" spans="29:29">
-      <c r="AC107" t="s">
+    <row r="87" spans="39:39">
+      <c r="AM87" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="108" spans="29:29">
-      <c r="AC108" t="s">
+    <row r="88" spans="39:39">
+      <c r="AM88" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="109" spans="29:29">
-      <c r="AC109" t="s">
+    <row r="89" spans="39:39">
+      <c r="AM89" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="110" spans="29:29">
-      <c r="AC110" t="s">
+    <row r="90" spans="39:39">
+      <c r="AM90" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="111" spans="29:29">
-      <c r="AC111" t="s">
+    <row r="91" spans="39:39">
+      <c r="AM91" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="112" spans="29:29">
-      <c r="AC112" t="s">
+    <row r="92" spans="39:39">
+      <c r="AM92" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="113" spans="29:29">
-      <c r="AC113" t="s">
+    <row r="93" spans="39:39">
+      <c r="AM93" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="114" spans="29:29">
-      <c r="AC114" t="s">
+    <row r="94" spans="39:39">
+      <c r="AM94" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="115" spans="29:29">
-      <c r="AC115" t="s">
+    <row r="95" spans="39:39">
+      <c r="AM95" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="116" spans="29:29">
-      <c r="AC116" t="s">
+    <row r="96" spans="39:39">
+      <c r="AM96" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="117" spans="29:29">
-      <c r="AC117" t="s">
+    <row r="97" spans="39:39">
+      <c r="AM97" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="118" spans="29:29">
-      <c r="AC118" t="s">
+    <row r="98" spans="39:39">
+      <c r="AM98" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="119" spans="29:29">
-      <c r="AC119" t="s">
+    <row r="99" spans="39:39">
+      <c r="AM99" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="120" spans="29:29">
-      <c r="AC120" t="s">
+    <row r="100" spans="39:39">
+      <c r="AM100" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="121" spans="29:29">
-      <c r="AC121" t="s">
+    <row r="101" spans="39:39">
+      <c r="AM101" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="122" spans="29:29">
-      <c r="AC122" t="s">
+    <row r="102" spans="39:39">
+      <c r="AM102" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="123" spans="29:29">
-      <c r="AC123" t="s">
+    <row r="103" spans="39:39">
+      <c r="AM103" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="124" spans="29:29">
-      <c r="AC124" t="s">
+    <row r="104" spans="39:39">
+      <c r="AM104" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="125" spans="29:29">
-      <c r="AC125" t="s">
+    <row r="105" spans="39:39">
+      <c r="AM105" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="126" spans="29:29">
-      <c r="AC126" t="s">
+    <row r="106" spans="39:39">
+      <c r="AM106" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="29:29">
-      <c r="AC127" t="s">
+    <row r="107" spans="39:39">
+      <c r="AM107" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="29:29">
-      <c r="AC128" t="s">
+    <row r="108" spans="39:39">
+      <c r="AM108" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="129" spans="29:29">
-      <c r="AC129" t="s">
+    <row r="109" spans="39:39">
+      <c r="AM109" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="29:29">
-      <c r="AC130" t="s">
+    <row r="110" spans="39:39">
+      <c r="AM110" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="131" spans="29:29">
-      <c r="AC131" t="s">
+    <row r="111" spans="39:39">
+      <c r="AM111" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="29:29">
-      <c r="AC132" t="s">
+    <row r="112" spans="39:39">
+      <c r="AM112" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="133" spans="29:29">
-      <c r="AC133" t="s">
+    <row r="113" spans="39:39">
+      <c r="AM113" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="29:29">
-      <c r="AC134" t="s">
+    <row r="114" spans="39:39">
+      <c r="AM114" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="135" spans="29:29">
-      <c r="AC135" t="s">
+    <row r="115" spans="39:39">
+      <c r="AM115" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="29:29">
-      <c r="AC136" t="s">
+    <row r="116" spans="39:39">
+      <c r="AM116" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="137" spans="29:29">
-      <c r="AC137" t="s">
+    <row r="117" spans="39:39">
+      <c r="AM117" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="138" spans="29:29">
-      <c r="AC138" t="s">
+    <row r="118" spans="39:39">
+      <c r="AM118" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="139" spans="29:29">
-      <c r="AC139" t="s">
+    <row r="119" spans="39:39">
+      <c r="AM119" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="140" spans="29:29">
-      <c r="AC140" t="s">
+    <row r="120" spans="39:39">
+      <c r="AM120" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="29:29">
-      <c r="AC141" t="s">
+    <row r="121" spans="39:39">
+      <c r="AM121" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="142" spans="29:29">
-      <c r="AC142" t="s">
+    <row r="122" spans="39:39">
+      <c r="AM122" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="143" spans="29:29">
-      <c r="AC143" t="s">
+    <row r="123" spans="39:39">
+      <c r="AM123" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="144" spans="29:29">
-      <c r="AC144" t="s">
+    <row r="124" spans="39:39">
+      <c r="AM124" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="145" spans="29:29">
-      <c r="AC145" t="s">
+    <row r="125" spans="39:39">
+      <c r="AM125" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="146" spans="29:29">
-      <c r="AC146" t="s">
+    <row r="126" spans="39:39">
+      <c r="AM126" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="147" spans="29:29">
-      <c r="AC147" t="s">
+    <row r="127" spans="39:39">
+      <c r="AM127" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="148" spans="29:29">
-      <c r="AC148" t="s">
+    <row r="128" spans="39:39">
+      <c r="AM128" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="149" spans="29:29">
-      <c r="AC149" t="s">
+    <row r="129" spans="39:39">
+      <c r="AM129" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="150" spans="29:29">
-      <c r="AC150" t="s">
+    <row r="130" spans="39:39">
+      <c r="AM130" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="151" spans="29:29">
-      <c r="AC151" t="s">
+    <row r="131" spans="39:39">
+      <c r="AM131" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="152" spans="29:29">
-      <c r="AC152" t="s">
+    <row r="132" spans="39:39">
+      <c r="AM132" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="153" spans="29:29">
-      <c r="AC153" t="s">
+    <row r="133" spans="39:39">
+      <c r="AM133" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="154" spans="29:29">
-      <c r="AC154" t="s">
+    <row r="134" spans="39:39">
+      <c r="AM134" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="155" spans="29:29">
-      <c r="AC155" t="s">
+    <row r="135" spans="39:39">
+      <c r="AM135" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="156" spans="29:29">
-      <c r="AC156" t="s">
+    <row r="136" spans="39:39">
+      <c r="AM136" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="157" spans="29:29">
-      <c r="AC157" t="s">
+    <row r="137" spans="39:39">
+      <c r="AM137" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="158" spans="29:29">
-      <c r="AC158" t="s">
+    <row r="138" spans="39:39">
+      <c r="AM138" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="159" spans="29:29">
-      <c r="AC159" t="s">
+    <row r="139" spans="39:39">
+      <c r="AM139" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="160" spans="29:29">
-      <c r="AC160" t="s">
+    <row r="140" spans="39:39">
+      <c r="AM140" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="161" spans="29:29">
-      <c r="AC161" t="s">
+    <row r="141" spans="39:39">
+      <c r="AM141" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="162" spans="29:29">
-      <c r="AC162" t="s">
+    <row r="142" spans="39:39">
+      <c r="AM142" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="163" spans="29:29">
-      <c r="AC163" t="s">
+    <row r="143" spans="39:39">
+      <c r="AM143" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="164" spans="29:29">
-      <c r="AC164" t="s">
+    <row r="144" spans="39:39">
+      <c r="AM144" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="165" spans="29:29">
-      <c r="AC165" t="s">
+    <row r="145" spans="39:39">
+      <c r="AM145" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="166" spans="29:29">
-      <c r="AC166" t="s">
+    <row r="146" spans="39:39">
+      <c r="AM146" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="167" spans="29:29">
-      <c r="AC167" t="s">
+    <row r="147" spans="39:39">
+      <c r="AM147" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="168" spans="29:29">
-      <c r="AC168" t="s">
+    <row r="148" spans="39:39">
+      <c r="AM148" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="169" spans="29:29">
-      <c r="AC169" t="s">
+    <row r="149" spans="39:39">
+      <c r="AM149" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="170" spans="29:29">
-      <c r="AC170" t="s">
+    <row r="150" spans="39:39">
+      <c r="AM150" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="171" spans="29:29">
-      <c r="AC171" t="s">
+    <row r="151" spans="39:39">
+      <c r="AM151" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="172" spans="29:29">
-      <c r="AC172" t="s">
+    <row r="152" spans="39:39">
+      <c r="AM152" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="29:29">
-      <c r="AC173" t="s">
+    <row r="153" spans="39:39">
+      <c r="AM153" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="174" spans="29:29">
-      <c r="AC174" t="s">
+    <row r="154" spans="39:39">
+      <c r="AM154" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="29:29">
-      <c r="AC175" t="s">
+    <row r="155" spans="39:39">
+      <c r="AM155" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="176" spans="29:29">
-      <c r="AC176" t="s">
+    <row r="156" spans="39:39">
+      <c r="AM156" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="177" spans="29:29">
-      <c r="AC177" t="s">
+    <row r="157" spans="39:39">
+      <c r="AM157" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="178" spans="29:29">
-      <c r="AC178" t="s">
+    <row r="158" spans="39:39">
+      <c r="AM158" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="179" spans="29:29">
-      <c r="AC179" t="s">
+    <row r="159" spans="39:39">
+      <c r="AM159" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="180" spans="29:29">
-      <c r="AC180" t="s">
+    <row r="160" spans="39:39">
+      <c r="AM160" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="181" spans="29:29">
-      <c r="AC181" t="s">
+    <row r="161" spans="39:39">
+      <c r="AM161" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="182" spans="29:29">
-      <c r="AC182" t="s">
+    <row r="162" spans="39:39">
+      <c r="AM162" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="183" spans="29:29">
-      <c r="AC183" t="s">
+    <row r="163" spans="39:39">
+      <c r="AM163" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="184" spans="29:29">
-      <c r="AC184" t="s">
+    <row r="164" spans="39:39">
+      <c r="AM164" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="185" spans="29:29">
-      <c r="AC185" t="s">
+    <row r="165" spans="39:39">
+      <c r="AM165" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="186" spans="29:29">
-      <c r="AC186" t="s">
+    <row r="166" spans="39:39">
+      <c r="AM166" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="187" spans="29:29">
-      <c r="AC187" t="s">
+    <row r="167" spans="39:39">
+      <c r="AM167" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="188" spans="29:29">
-      <c r="AC188" t="s">
+    <row r="168" spans="39:39">
+      <c r="AM168" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="189" spans="29:29">
-      <c r="AC189" t="s">
+    <row r="169" spans="39:39">
+      <c r="AM169" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="190" spans="29:29">
-      <c r="AC190" t="s">
+    <row r="170" spans="39:39">
+      <c r="AM170" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="191" spans="29:29">
-      <c r="AC191" t="s">
+    <row r="171" spans="39:39">
+      <c r="AM171" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="192" spans="29:29">
-      <c r="AC192" t="s">
+    <row r="172" spans="39:39">
+      <c r="AM172" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="193" spans="29:29">
-      <c r="AC193" t="s">
+    <row r="173" spans="39:39">
+      <c r="AM173" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="194" spans="29:29">
-      <c r="AC194" t="s">
+    <row r="174" spans="39:39">
+      <c r="AM174" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="195" spans="29:29">
-      <c r="AC195" t="s">
+    <row r="175" spans="39:39">
+      <c r="AM175" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="196" spans="29:29">
-      <c r="AC196" t="s">
+    <row r="176" spans="39:39">
+      <c r="AM176" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="197" spans="29:29">
-      <c r="AC197" t="s">
+    <row r="177" spans="39:39">
+      <c r="AM177" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="198" spans="29:29">
-      <c r="AC198" t="s">
+    <row r="178" spans="39:39">
+      <c r="AM178" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="199" spans="29:29">
-      <c r="AC199" t="s">
+    <row r="179" spans="39:39">
+      <c r="AM179" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="200" spans="29:29">
-      <c r="AC200" t="s">
+    <row r="180" spans="39:39">
+      <c r="AM180" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="201" spans="29:29">
-      <c r="AC201" t="s">
+    <row r="181" spans="39:39">
+      <c r="AM181" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="202" spans="29:29">
-      <c r="AC202" t="s">
+    <row r="182" spans="39:39">
+      <c r="AM182" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="203" spans="29:29">
-      <c r="AC203" t="s">
+    <row r="183" spans="39:39">
+      <c r="AM183" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="204" spans="29:29">
-      <c r="AC204" t="s">
+    <row r="184" spans="39:39">
+      <c r="AM184" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="205" spans="29:29">
-      <c r="AC205" t="s">
+    <row r="185" spans="39:39">
+      <c r="AM185" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="206" spans="29:29">
-      <c r="AC206" t="s">
+    <row r="186" spans="39:39">
+      <c r="AM186" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="207" spans="29:29">
-      <c r="AC207" t="s">
+    <row r="187" spans="39:39">
+      <c r="AM187" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="208" spans="29:29">
-      <c r="AC208" t="s">
+    <row r="188" spans="39:39">
+      <c r="AM188" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="209" spans="29:29">
-      <c r="AC209" t="s">
+    <row r="189" spans="39:39">
+      <c r="AM189" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="210" spans="29:29">
-      <c r="AC210" t="s">
+    <row r="190" spans="39:39">
+      <c r="AM190" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="211" spans="29:29">
-      <c r="AC211" t="s">
+    <row r="191" spans="39:39">
+      <c r="AM191" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="212" spans="29:29">
-      <c r="AC212" t="s">
+    <row r="192" spans="39:39">
+      <c r="AM192" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="213" spans="29:29">
-      <c r="AC213" t="s">
+    <row r="193" spans="39:39">
+      <c r="AM193" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="214" spans="29:29">
-      <c r="AC214" t="s">
+    <row r="194" spans="39:39">
+      <c r="AM194" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="215" spans="29:29">
-      <c r="AC215" t="s">
+    <row r="195" spans="39:39">
+      <c r="AM195" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="216" spans="29:29">
-      <c r="AC216" t="s">
+    <row r="196" spans="39:39">
+      <c r="AM196" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="217" spans="29:29">
-      <c r="AC217" t="s">
+    <row r="197" spans="39:39">
+      <c r="AM197" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="218" spans="29:29">
-      <c r="AC218" t="s">
+    <row r="198" spans="39:39">
+      <c r="AM198" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="219" spans="29:29">
-      <c r="AC219" t="s">
+    <row r="199" spans="39:39">
+      <c r="AM199" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="220" spans="29:29">
-      <c r="AC220" t="s">
+    <row r="200" spans="39:39">
+      <c r="AM200" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="221" spans="29:29">
-      <c r="AC221" t="s">
+    <row r="201" spans="39:39">
+      <c r="AM201" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="222" spans="29:29">
-      <c r="AC222" t="s">
+    <row r="202" spans="39:39">
+      <c r="AM202" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="223" spans="29:29">
-      <c r="AC223" t="s">
+    <row r="203" spans="39:39">
+      <c r="AM203" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="224" spans="29:29">
-      <c r="AC224" t="s">
+    <row r="204" spans="39:39">
+      <c r="AM204" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="225" spans="29:29">
-      <c r="AC225" t="s">
+    <row r="205" spans="39:39">
+      <c r="AM205" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="226" spans="29:29">
-      <c r="AC226" t="s">
+    <row r="206" spans="39:39">
+      <c r="AM206" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="227" spans="29:29">
-      <c r="AC227" t="s">
+    <row r="207" spans="39:39">
+      <c r="AM207" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="228" spans="29:29">
-      <c r="AC228" t="s">
+    <row r="208" spans="39:39">
+      <c r="AM208" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="229" spans="29:29">
-      <c r="AC229" t="s">
+    <row r="209" spans="39:39">
+      <c r="AM209" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="230" spans="29:29">
-      <c r="AC230" t="s">
+    <row r="210" spans="39:39">
+      <c r="AM210" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="231" spans="29:29">
-      <c r="AC231" t="s">
+    <row r="211" spans="39:39">
+      <c r="AM211" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="232" spans="29:29">
-      <c r="AC232" t="s">
+    <row r="212" spans="39:39">
+      <c r="AM212" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="233" spans="29:29">
-      <c r="AC233" t="s">
+    <row r="213" spans="39:39">
+      <c r="AM213" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="234" spans="29:29">
-      <c r="AC234" t="s">
+    <row r="214" spans="39:39">
+      <c r="AM214" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="235" spans="29:29">
-      <c r="AC235" t="s">
+    <row r="215" spans="39:39">
+      <c r="AM215" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="236" spans="29:29">
-      <c r="AC236" t="s">
+    <row r="216" spans="39:39">
+      <c r="AM216" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="237" spans="29:29">
-      <c r="AC237" t="s">
+    <row r="217" spans="39:39">
+      <c r="AM217" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="238" spans="29:29">
-      <c r="AC238" t="s">
+    <row r="218" spans="39:39">
+      <c r="AM218" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="239" spans="29:29">
-      <c r="AC239" t="s">
+    <row r="219" spans="39:39">
+      <c r="AM219" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="240" spans="29:29">
-      <c r="AC240" t="s">
+    <row r="220" spans="39:39">
+      <c r="AM220" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="241" spans="29:29">
-      <c r="AC241" t="s">
+    <row r="221" spans="39:39">
+      <c r="AM221" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="242" spans="29:29">
-      <c r="AC242" t="s">
+    <row r="222" spans="39:39">
+      <c r="AM222" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="243" spans="29:29">
-      <c r="AC243" t="s">
+    <row r="223" spans="39:39">
+      <c r="AM223" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="244" spans="29:29">
-      <c r="AC244" t="s">
+    <row r="224" spans="39:39">
+      <c r="AM224" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="245" spans="29:29">
-      <c r="AC245" t="s">
+    <row r="225" spans="39:39">
+      <c r="AM225" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="29:29">
-      <c r="AC246" t="s">
+    <row r="226" spans="39:39">
+      <c r="AM226" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="247" spans="29:29">
-      <c r="AC247" t="s">
+    <row r="227" spans="39:39">
+      <c r="AM227" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="248" spans="29:29">
-      <c r="AC248" t="s">
+    <row r="228" spans="39:39">
+      <c r="AM228" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="249" spans="29:29">
-      <c r="AC249" t="s">
+    <row r="229" spans="39:39">
+      <c r="AM229" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="250" spans="29:29">
-      <c r="AC250" t="s">
+    <row r="230" spans="39:39">
+      <c r="AM230" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="251" spans="29:29">
-      <c r="AC251" t="s">
+    <row r="231" spans="39:39">
+      <c r="AM231" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="252" spans="29:29">
-      <c r="AC252" t="s">
+    <row r="232" spans="39:39">
+      <c r="AM232" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="253" spans="29:29">
-      <c r="AC253" t="s">
+    <row r="233" spans="39:39">
+      <c r="AM233" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="254" spans="29:29">
-      <c r="AC254" t="s">
+    <row r="234" spans="39:39">
+      <c r="AM234" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="255" spans="29:29">
-      <c r="AC255" t="s">
+    <row r="235" spans="39:39">
+      <c r="AM235" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="256" spans="29:29">
-      <c r="AC256" t="s">
+    <row r="236" spans="39:39">
+      <c r="AM236" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="257" spans="29:29">
-      <c r="AC257" t="s">
+    <row r="237" spans="39:39">
+      <c r="AM237" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="258" spans="29:29">
-      <c r="AC258" t="s">
+    <row r="238" spans="39:39">
+      <c r="AM238" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="259" spans="29:29">
-      <c r="AC259" t="s">
+    <row r="239" spans="39:39">
+      <c r="AM239" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="260" spans="29:29">
-      <c r="AC260" t="s">
+    <row r="240" spans="39:39">
+      <c r="AM240" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="261" spans="29:29">
-      <c r="AC261" t="s">
+    <row r="241" spans="39:39">
+      <c r="AM241" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="262" spans="29:29">
-      <c r="AC262" t="s">
+    <row r="242" spans="39:39">
+      <c r="AM242" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="263" spans="29:29">
-      <c r="AC263" t="s">
+    <row r="243" spans="39:39">
+      <c r="AM243" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="264" spans="29:29">
-      <c r="AC264" t="s">
+    <row r="244" spans="39:39">
+      <c r="AM244" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="265" spans="29:29">
-      <c r="AC265" t="s">
+    <row r="245" spans="39:39">
+      <c r="AM245" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="266" spans="29:29">
-      <c r="AC266" t="s">
+    <row r="246" spans="39:39">
+      <c r="AM246" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="267" spans="29:29">
-      <c r="AC267" t="s">
+    <row r="247" spans="39:39">
+      <c r="AM247" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="268" spans="29:29">
-      <c r="AC268" t="s">
+    <row r="248" spans="39:39">
+      <c r="AM248" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="269" spans="29:29">
-      <c r="AC269" t="s">
+    <row r="249" spans="39:39">
+      <c r="AM249" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="270" spans="29:29">
-      <c r="AC270" t="s">
+    <row r="250" spans="39:39">
+      <c r="AM250" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="271" spans="29:29">
-      <c r="AC271" t="s">
+    <row r="251" spans="39:39">
+      <c r="AM251" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="272" spans="29:29">
-      <c r="AC272" t="s">
+    <row r="252" spans="39:39">
+      <c r="AM252" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="273" spans="29:29">
-      <c r="AC273" t="s">
+    <row r="253" spans="39:39">
+      <c r="AM253" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="274" spans="29:29">
-      <c r="AC274" t="s">
+    <row r="254" spans="39:39">
+      <c r="AM254" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="275" spans="29:29">
-      <c r="AC275" t="s">
+    <row r="255" spans="39:39">
+      <c r="AM255" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="276" spans="29:29">
-      <c r="AC276" t="s">
+    <row r="256" spans="39:39">
+      <c r="AM256" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="277" spans="29:29">
-      <c r="AC277" t="s">
+    <row r="257" spans="39:39">
+      <c r="AM257" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="278" spans="29:29">
-      <c r="AC278" t="s">
+    <row r="258" spans="39:39">
+      <c r="AM258" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="279" spans="29:29">
-      <c r="AC279" t="s">
+    <row r="259" spans="39:39">
+      <c r="AM259" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="280" spans="29:29">
-      <c r="AC280" t="s">
+    <row r="260" spans="39:39">
+      <c r="AM260" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="281" spans="29:29">
-      <c r="AC281" t="s">
+    <row r="261" spans="39:39">
+      <c r="AM261" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="282" spans="29:29">
-      <c r="AC282" t="s">
+    <row r="262" spans="39:39">
+      <c r="AM262" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="283" spans="29:29">
-      <c r="AC283" t="s">
+    <row r="263" spans="39:39">
+      <c r="AM263" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="284" spans="29:29">
-      <c r="AC284" t="s">
+    <row r="264" spans="39:39">
+      <c r="AM264" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="285" spans="29:29">
-      <c r="AC285" t="s">
+    <row r="265" spans="39:39">
+      <c r="AM265" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="286" spans="29:29">
-      <c r="AC286" t="s">
+    <row r="266" spans="39:39">
+      <c r="AM266" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="287" spans="29:29">
-      <c r="AC287" t="s">
+    <row r="267" spans="39:39">
+      <c r="AM267" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="288" spans="29:29">
-      <c r="AC288" t="s">
+    <row r="268" spans="39:39">
+      <c r="AM268" t="s">
         <v>648</v>
+      </c>
+    </row>
+    <row r="269" spans="39:39">
+      <c r="AM269" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="270" spans="39:39">
+      <c r="AM270" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="271" spans="39:39">
+      <c r="AM271" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="272" spans="39:39">
+      <c r="AM272" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="273" spans="39:39">
+      <c r="AM273" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="274" spans="39:39">
+      <c r="AM274" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="275" spans="39:39">
+      <c r="AM275" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="276" spans="39:39">
+      <c r="AM276" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="277" spans="39:39">
+      <c r="AM277" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="278" spans="39:39">
+      <c r="AM278" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="279" spans="39:39">
+      <c r="AM279" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="280" spans="39:39">
+      <c r="AM280" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="281" spans="39:39">
+      <c r="AM281" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="282" spans="39:39">
+      <c r="AM282" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="283" spans="39:39">
+      <c r="AM283" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="284" spans="39:39">
+      <c r="AM284" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="285" spans="39:39">
+      <c r="AM285" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="286" spans="39:39">
+      <c r="AM286" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="287" spans="39:39">
+      <c r="AM287" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="288" spans="39:39">
+      <c r="AM288" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="289" spans="39:39">
+      <c r="AM289" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AM$1:$AM$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="784">
   <si>
     <t>alias</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2923,7 +2926,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2967,7 +2970,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2994,7 +2997,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3706,6 +3709,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3730,27 +3738,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3773,122 +3781,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3915,570 +3923,570 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:95" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -4516,1588 +4524,1588 @@
   <sheetData>
     <row r="1" spans="5:39">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="5:39">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="5:39">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="5:39">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="5:39">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="5:39">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="5:39">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="5:39">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="5:39">
       <c r="E9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="5:39">
       <c r="E10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="5:39">
       <c r="E11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="5:39">
       <c r="E12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="5:39">
       <c r="E13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="5:39">
       <c r="E14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="5:39">
       <c r="E15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="5:39">
       <c r="E16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="5:39">
       <c r="E17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="5:39">
       <c r="E18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="5:39">
       <c r="E19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM19" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="5:39">
       <c r="E20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="5:39">
       <c r="E21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="5:39">
       <c r="E22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM22" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="5:39">
       <c r="E23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM23" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="5:39">
       <c r="E24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="5:39">
       <c r="E25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="5:39">
       <c r="E26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="5:39">
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="5:39">
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="5:39">
       <c r="E29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="5:39">
       <c r="E30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="5:39">
       <c r="AM31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="5:39">
       <c r="AM32" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="39:39">
       <c r="AM33" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="39:39">
       <c r="AM34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="39:39">
       <c r="AM35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="39:39">
       <c r="AM36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="39:39">
       <c r="AM37" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="39:39">
       <c r="AM38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="39:39">
       <c r="AM39" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="39:39">
       <c r="AM40" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="39:39">
       <c r="AM41" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="39:39">
       <c r="AM42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="39:39">
       <c r="AM43" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="39:39">
       <c r="AM44" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="39:39">
       <c r="AM45" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="39:39">
       <c r="AM46" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="39:39">
       <c r="AM47" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="39:39">
       <c r="AM48" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="39:39">
       <c r="AM49" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="39:39">
       <c r="AM50" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="39:39">
       <c r="AM51" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="39:39">
       <c r="AM52" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="39:39">
       <c r="AM53" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="39:39">
       <c r="AM54" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="39:39">
       <c r="AM55" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="39:39">
       <c r="AM56" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="39:39">
       <c r="AM57" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="39:39">
       <c r="AM58" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="39:39">
       <c r="AM59" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="39:39">
       <c r="AM60" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="39:39">
       <c r="AM61" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="39:39">
       <c r="AM62" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="39:39">
       <c r="AM63" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="39:39">
       <c r="AM64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="39:39">
       <c r="AM65" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="39:39">
       <c r="AM66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="39:39">
       <c r="AM67" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="39:39">
       <c r="AM68" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="39:39">
       <c r="AM69" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="39:39">
       <c r="AM70" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="39:39">
       <c r="AM71" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="39:39">
       <c r="AM72" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="39:39">
       <c r="AM73" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="39:39">
       <c r="AM74" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="39:39">
       <c r="AM75" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="39:39">
       <c r="AM76" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="39:39">
       <c r="AM77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78" spans="39:39">
       <c r="AM78" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="39:39">
       <c r="AM79" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="39:39">
       <c r="AM80" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="39:39">
       <c r="AM81" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82" spans="39:39">
       <c r="AM82" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83" spans="39:39">
       <c r="AM83" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="39:39">
       <c r="AM84" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="39:39">
       <c r="AM85" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="39:39">
       <c r="AM86" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="39:39">
       <c r="AM87" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="39:39">
       <c r="AM88" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89" spans="39:39">
       <c r="AM89" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="90" spans="39:39">
       <c r="AM90" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="39:39">
       <c r="AM91" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="39:39">
       <c r="AM92" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="39:39">
       <c r="AM93" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" spans="39:39">
       <c r="AM94" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="39:39">
       <c r="AM95" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="39:39">
       <c r="AM96" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="39:39">
       <c r="AM97" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98" spans="39:39">
       <c r="AM98" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="99" spans="39:39">
       <c r="AM99" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="39:39">
       <c r="AM100" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="39:39">
       <c r="AM101" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="39:39">
       <c r="AM102" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="103" spans="39:39">
       <c r="AM103" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="39:39">
       <c r="AM104" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="39:39">
       <c r="AM105" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="106" spans="39:39">
       <c r="AM106" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="107" spans="39:39">
       <c r="AM107" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="108" spans="39:39">
       <c r="AM108" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="39:39">
       <c r="AM109" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110" spans="39:39">
       <c r="AM110" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" spans="39:39">
       <c r="AM111" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="112" spans="39:39">
       <c r="AM112" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="113" spans="39:39">
       <c r="AM113" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="114" spans="39:39">
       <c r="AM114" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="39:39">
       <c r="AM115" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116" spans="39:39">
       <c r="AM116" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="117" spans="39:39">
       <c r="AM117" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="118" spans="39:39">
       <c r="AM118" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="119" spans="39:39">
       <c r="AM119" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="39:39">
       <c r="AM120" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="121" spans="39:39">
       <c r="AM121" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="39:39">
       <c r="AM122" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="123" spans="39:39">
       <c r="AM123" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="124" spans="39:39">
       <c r="AM124" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="125" spans="39:39">
       <c r="AM125" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="126" spans="39:39">
       <c r="AM126" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="127" spans="39:39">
       <c r="AM127" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128" spans="39:39">
       <c r="AM128" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="129" spans="39:39">
       <c r="AM129" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="130" spans="39:39">
       <c r="AM130" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="39:39">
       <c r="AM131" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="132" spans="39:39">
       <c r="AM132" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="133" spans="39:39">
       <c r="AM133" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134" spans="39:39">
       <c r="AM134" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="135" spans="39:39">
       <c r="AM135" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="136" spans="39:39">
       <c r="AM136" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="39:39">
       <c r="AM137" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="138" spans="39:39">
       <c r="AM138" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="139" spans="39:39">
       <c r="AM139" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="140" spans="39:39">
       <c r="AM140" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="141" spans="39:39">
       <c r="AM141" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="142" spans="39:39">
       <c r="AM142" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="143" spans="39:39">
       <c r="AM143" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="39:39">
       <c r="AM144" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" spans="39:39">
       <c r="AM145" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="146" spans="39:39">
       <c r="AM146" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="147" spans="39:39">
       <c r="AM147" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="148" spans="39:39">
       <c r="AM148" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="149" spans="39:39">
       <c r="AM149" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="150" spans="39:39">
       <c r="AM150" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="151" spans="39:39">
       <c r="AM151" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="152" spans="39:39">
       <c r="AM152" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153" spans="39:39">
       <c r="AM153" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="154" spans="39:39">
       <c r="AM154" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="155" spans="39:39">
       <c r="AM155" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="156" spans="39:39">
       <c r="AM156" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="157" spans="39:39">
       <c r="AM157" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="158" spans="39:39">
       <c r="AM158" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="159" spans="39:39">
       <c r="AM159" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="160" spans="39:39">
       <c r="AM160" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="161" spans="39:39">
       <c r="AM161" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="162" spans="39:39">
       <c r="AM162" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="163" spans="39:39">
       <c r="AM163" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="164" spans="39:39">
       <c r="AM164" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="165" spans="39:39">
       <c r="AM165" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="166" spans="39:39">
       <c r="AM166" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="167" spans="39:39">
       <c r="AM167" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="168" spans="39:39">
       <c r="AM168" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="169" spans="39:39">
       <c r="AM169" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="170" spans="39:39">
       <c r="AM170" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="171" spans="39:39">
       <c r="AM171" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="172" spans="39:39">
       <c r="AM172" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="173" spans="39:39">
       <c r="AM173" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="174" spans="39:39">
       <c r="AM174" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="175" spans="39:39">
       <c r="AM175" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="176" spans="39:39">
       <c r="AM176" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="177" spans="39:39">
       <c r="AM177" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="178" spans="39:39">
       <c r="AM178" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="179" spans="39:39">
       <c r="AM179" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="180" spans="39:39">
       <c r="AM180" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="181" spans="39:39">
       <c r="AM181" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="182" spans="39:39">
       <c r="AM182" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="183" spans="39:39">
       <c r="AM183" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="184" spans="39:39">
       <c r="AM184" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="185" spans="39:39">
       <c r="AM185" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="186" spans="39:39">
       <c r="AM186" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="39:39">
       <c r="AM187" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="188" spans="39:39">
       <c r="AM188" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="189" spans="39:39">
       <c r="AM189" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="190" spans="39:39">
       <c r="AM190" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="39:39">
       <c r="AM191" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="192" spans="39:39">
       <c r="AM192" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="193" spans="39:39">
       <c r="AM193" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="194" spans="39:39">
       <c r="AM194" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="195" spans="39:39">
       <c r="AM195" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="196" spans="39:39">
       <c r="AM196" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="197" spans="39:39">
       <c r="AM197" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="198" spans="39:39">
       <c r="AM198" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" spans="39:39">
       <c r="AM199" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="200" spans="39:39">
       <c r="AM200" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" spans="39:39">
       <c r="AM201" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="202" spans="39:39">
       <c r="AM202" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="203" spans="39:39">
       <c r="AM203" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="204" spans="39:39">
       <c r="AM204" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="205" spans="39:39">
       <c r="AM205" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="206" spans="39:39">
       <c r="AM206" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="207" spans="39:39">
       <c r="AM207" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="208" spans="39:39">
       <c r="AM208" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="209" spans="39:39">
       <c r="AM209" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="210" spans="39:39">
       <c r="AM210" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="211" spans="39:39">
       <c r="AM211" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="212" spans="39:39">
       <c r="AM212" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="213" spans="39:39">
       <c r="AM213" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="214" spans="39:39">
       <c r="AM214" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="215" spans="39:39">
       <c r="AM215" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="216" spans="39:39">
       <c r="AM216" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="217" spans="39:39">
       <c r="AM217" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="218" spans="39:39">
       <c r="AM218" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="219" spans="39:39">
       <c r="AM219" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="220" spans="39:39">
       <c r="AM220" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="221" spans="39:39">
       <c r="AM221" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="222" spans="39:39">
       <c r="AM222" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="223" spans="39:39">
       <c r="AM223" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="224" spans="39:39">
       <c r="AM224" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="225" spans="39:39">
       <c r="AM225" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="226" spans="39:39">
       <c r="AM226" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="227" spans="39:39">
       <c r="AM227" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="228" spans="39:39">
       <c r="AM228" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="229" spans="39:39">
       <c r="AM229" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="230" spans="39:39">
       <c r="AM230" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="231" spans="39:39">
       <c r="AM231" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="232" spans="39:39">
       <c r="AM232" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="233" spans="39:39">
       <c r="AM233" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="234" spans="39:39">
       <c r="AM234" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="235" spans="39:39">
       <c r="AM235" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="236" spans="39:39">
       <c r="AM236" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="237" spans="39:39">
       <c r="AM237" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="238" spans="39:39">
       <c r="AM238" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="239" spans="39:39">
       <c r="AM239" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="240" spans="39:39">
       <c r="AM240" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="241" spans="39:39">
       <c r="AM241" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="242" spans="39:39">
       <c r="AM242" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="243" spans="39:39">
       <c r="AM243" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="244" spans="39:39">
       <c r="AM244" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="245" spans="39:39">
       <c r="AM245" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="246" spans="39:39">
       <c r="AM246" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="247" spans="39:39">
       <c r="AM247" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="248" spans="39:39">
       <c r="AM248" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="249" spans="39:39">
       <c r="AM249" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="250" spans="39:39">
       <c r="AM250" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="251" spans="39:39">
       <c r="AM251" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="252" spans="39:39">
       <c r="AM252" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="253" spans="39:39">
       <c r="AM253" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="254" spans="39:39">
       <c r="AM254" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="255" spans="39:39">
       <c r="AM255" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="256" spans="39:39">
       <c r="AM256" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="257" spans="39:39">
       <c r="AM257" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="258" spans="39:39">
       <c r="AM258" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="259" spans="39:39">
       <c r="AM259" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="260" spans="39:39">
       <c r="AM260" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="261" spans="39:39">
       <c r="AM261" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="262" spans="39:39">
       <c r="AM262" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="263" spans="39:39">
       <c r="AM263" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="264" spans="39:39">
       <c r="AM264" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="265" spans="39:39">
       <c r="AM265" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="266" spans="39:39">
       <c r="AM266" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="267" spans="39:39">
       <c r="AM267" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="268" spans="39:39">
       <c r="AM268" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="269" spans="39:39">
       <c r="AM269" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="270" spans="39:39">
       <c r="AM270" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="271" spans="39:39">
       <c r="AM271" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="272" spans="39:39">
       <c r="AM272" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="273" spans="39:39">
       <c r="AM273" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="274" spans="39:39">
       <c r="AM274" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="275" spans="39:39">
       <c r="AM275" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="276" spans="39:39">
       <c r="AM276" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="277" spans="39:39">
       <c r="AM277" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="278" spans="39:39">
       <c r="AM278" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="279" spans="39:39">
       <c r="AM279" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="280" spans="39:39">
       <c r="AM280" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="281" spans="39:39">
       <c r="AM281" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="282" spans="39:39">
       <c r="AM282" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="283" spans="39:39">
       <c r="AM283" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="284" spans="39:39">
       <c r="AM284" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="285" spans="39:39">
       <c r="AM285" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="286" spans="39:39">
       <c r="AM286" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="287" spans="39:39">
       <c r="AM287" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="288" spans="39:39">
       <c r="AM288" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="289" spans="39:39">
       <c r="AM289" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AM$1:$AM$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="785">
   <si>
     <t>alias</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2926,7 +2929,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2970,7 +2973,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2997,7 +3000,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3714,6 +3717,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3738,27 +3746,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3781,122 +3789,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3923,570 +3931,570 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:95" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -4524,1588 +4532,1588 @@
   <sheetData>
     <row r="1" spans="5:39">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="5:39">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="5:39">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="5:39">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="5:39">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="5:39">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="5:39">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="5:39">
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="5:39">
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="5:39">
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="5:39">
       <c r="E11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="5:39">
       <c r="E12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="5:39">
       <c r="E13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="5:39">
       <c r="E14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="5:39">
       <c r="E15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="5:39">
       <c r="E16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="5:39">
       <c r="E17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="5:39">
       <c r="E18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="5:39">
       <c r="E19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="5:39">
       <c r="E20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="5:39">
       <c r="E21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="5:39">
       <c r="E22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="5:39">
       <c r="E23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM23" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="5:39">
       <c r="E24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="5:39">
       <c r="E25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="5:39">
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM26" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="5:39">
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="5:39">
       <c r="E28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="5:39">
       <c r="E29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM29" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="5:39">
       <c r="E30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="5:39">
       <c r="AM31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="5:39">
       <c r="AM32" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="39:39">
       <c r="AM33" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="39:39">
       <c r="AM34" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="39:39">
       <c r="AM35" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="39:39">
       <c r="AM36" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="39:39">
       <c r="AM37" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="39:39">
       <c r="AM38" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="39:39">
       <c r="AM39" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="39:39">
       <c r="AM40" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="39:39">
       <c r="AM41" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="39:39">
       <c r="AM42" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="39:39">
       <c r="AM43" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="39:39">
       <c r="AM44" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="39:39">
       <c r="AM45" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="39:39">
       <c r="AM46" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="39:39">
       <c r="AM47" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="39:39">
       <c r="AM48" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="39:39">
       <c r="AM49" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="39:39">
       <c r="AM50" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="39:39">
       <c r="AM51" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="39:39">
       <c r="AM52" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="39:39">
       <c r="AM53" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="39:39">
       <c r="AM54" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="39:39">
       <c r="AM55" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="39:39">
       <c r="AM56" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="39:39">
       <c r="AM57" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="39:39">
       <c r="AM58" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="39:39">
       <c r="AM59" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="39:39">
       <c r="AM60" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="39:39">
       <c r="AM61" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="39:39">
       <c r="AM62" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="39:39">
       <c r="AM63" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="39:39">
       <c r="AM64" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="39:39">
       <c r="AM65" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="39:39">
       <c r="AM66" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="39:39">
       <c r="AM67" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="39:39">
       <c r="AM68" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="39:39">
       <c r="AM69" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="39:39">
       <c r="AM70" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="39:39">
       <c r="AM71" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="39:39">
       <c r="AM72" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="39:39">
       <c r="AM73" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="39:39">
       <c r="AM74" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="39:39">
       <c r="AM75" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="39:39">
       <c r="AM76" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="39:39">
       <c r="AM77" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="39:39">
       <c r="AM78" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="39:39">
       <c r="AM79" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="39:39">
       <c r="AM80" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="39:39">
       <c r="AM81" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="39:39">
       <c r="AM82" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="39:39">
       <c r="AM83" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="39:39">
       <c r="AM84" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="39:39">
       <c r="AM85" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="39:39">
       <c r="AM86" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="39:39">
       <c r="AM87" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="39:39">
       <c r="AM88" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89" spans="39:39">
       <c r="AM89" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="39:39">
       <c r="AM90" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="39:39">
       <c r="AM91" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="39:39">
       <c r="AM92" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93" spans="39:39">
       <c r="AM93" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="39:39">
       <c r="AM94" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="39:39">
       <c r="AM95" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="39:39">
       <c r="AM96" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="39:39">
       <c r="AM97" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="39:39">
       <c r="AM98" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="39:39">
       <c r="AM99" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="39:39">
       <c r="AM100" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="101" spans="39:39">
       <c r="AM101" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="39:39">
       <c r="AM102" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="39:39">
       <c r="AM103" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="39:39">
       <c r="AM104" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="39:39">
       <c r="AM105" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106" spans="39:39">
       <c r="AM106" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" spans="39:39">
       <c r="AM107" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108" spans="39:39">
       <c r="AM108" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="39:39">
       <c r="AM109" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="39:39">
       <c r="AM110" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="39:39">
       <c r="AM111" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="39:39">
       <c r="AM112" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="39:39">
       <c r="AM113" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="39:39">
       <c r="AM114" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="39:39">
       <c r="AM115" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="39:39">
       <c r="AM116" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117" spans="39:39">
       <c r="AM117" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118" spans="39:39">
       <c r="AM118" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="39:39">
       <c r="AM119" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120" spans="39:39">
       <c r="AM120" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="39:39">
       <c r="AM121" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="39:39">
       <c r="AM122" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="39:39">
       <c r="AM123" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="39:39">
       <c r="AM124" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="39:39">
       <c r="AM125" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="126" spans="39:39">
       <c r="AM126" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" spans="39:39">
       <c r="AM127" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="128" spans="39:39">
       <c r="AM128" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" spans="39:39">
       <c r="AM129" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130" spans="39:39">
       <c r="AM130" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" spans="39:39">
       <c r="AM131" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="132" spans="39:39">
       <c r="AM132" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133" spans="39:39">
       <c r="AM133" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134" spans="39:39">
       <c r="AM134" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="39:39">
       <c r="AM135" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="136" spans="39:39">
       <c r="AM136" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137" spans="39:39">
       <c r="AM137" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138" spans="39:39">
       <c r="AM138" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="139" spans="39:39">
       <c r="AM139" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="140" spans="39:39">
       <c r="AM140" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="39:39">
       <c r="AM141" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="39:39">
       <c r="AM142" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="39:39">
       <c r="AM143" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="39:39">
       <c r="AM144" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="39:39">
       <c r="AM145" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="146" spans="39:39">
       <c r="AM146" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="147" spans="39:39">
       <c r="AM147" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="148" spans="39:39">
       <c r="AM148" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="149" spans="39:39">
       <c r="AM149" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="150" spans="39:39">
       <c r="AM150" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="151" spans="39:39">
       <c r="AM151" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="152" spans="39:39">
       <c r="AM152" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="153" spans="39:39">
       <c r="AM153" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="154" spans="39:39">
       <c r="AM154" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="155" spans="39:39">
       <c r="AM155" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="156" spans="39:39">
       <c r="AM156" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="157" spans="39:39">
       <c r="AM157" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="158" spans="39:39">
       <c r="AM158" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="159" spans="39:39">
       <c r="AM159" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="160" spans="39:39">
       <c r="AM160" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="161" spans="39:39">
       <c r="AM161" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="162" spans="39:39">
       <c r="AM162" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="163" spans="39:39">
       <c r="AM163" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="164" spans="39:39">
       <c r="AM164" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="165" spans="39:39">
       <c r="AM165" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="166" spans="39:39">
       <c r="AM166" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="167" spans="39:39">
       <c r="AM167" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="168" spans="39:39">
       <c r="AM168" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="169" spans="39:39">
       <c r="AM169" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="170" spans="39:39">
       <c r="AM170" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="171" spans="39:39">
       <c r="AM171" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="172" spans="39:39">
       <c r="AM172" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="173" spans="39:39">
       <c r="AM173" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="174" spans="39:39">
       <c r="AM174" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="175" spans="39:39">
       <c r="AM175" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="176" spans="39:39">
       <c r="AM176" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="177" spans="39:39">
       <c r="AM177" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="178" spans="39:39">
       <c r="AM178" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="179" spans="39:39">
       <c r="AM179" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" spans="39:39">
       <c r="AM180" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="181" spans="39:39">
       <c r="AM181" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="182" spans="39:39">
       <c r="AM182" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" spans="39:39">
       <c r="AM183" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="184" spans="39:39">
       <c r="AM184" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="185" spans="39:39">
       <c r="AM185" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="186" spans="39:39">
       <c r="AM186" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="187" spans="39:39">
       <c r="AM187" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="188" spans="39:39">
       <c r="AM188" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="189" spans="39:39">
       <c r="AM189" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="39:39">
       <c r="AM190" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="191" spans="39:39">
       <c r="AM191" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="39:39">
       <c r="AM192" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="193" spans="39:39">
       <c r="AM193" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="194" spans="39:39">
       <c r="AM194" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="195" spans="39:39">
       <c r="AM195" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="196" spans="39:39">
       <c r="AM196" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="197" spans="39:39">
       <c r="AM197" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="198" spans="39:39">
       <c r="AM198" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="199" spans="39:39">
       <c r="AM199" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="39:39">
       <c r="AM200" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="201" spans="39:39">
       <c r="AM201" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="202" spans="39:39">
       <c r="AM202" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="203" spans="39:39">
       <c r="AM203" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="204" spans="39:39">
       <c r="AM204" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="205" spans="39:39">
       <c r="AM205" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="206" spans="39:39">
       <c r="AM206" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="207" spans="39:39">
       <c r="AM207" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="208" spans="39:39">
       <c r="AM208" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="209" spans="39:39">
       <c r="AM209" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="210" spans="39:39">
       <c r="AM210" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="211" spans="39:39">
       <c r="AM211" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="212" spans="39:39">
       <c r="AM212" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="213" spans="39:39">
       <c r="AM213" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="214" spans="39:39">
       <c r="AM214" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="215" spans="39:39">
       <c r="AM215" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="216" spans="39:39">
       <c r="AM216" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="217" spans="39:39">
       <c r="AM217" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="218" spans="39:39">
       <c r="AM218" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="219" spans="39:39">
       <c r="AM219" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="220" spans="39:39">
       <c r="AM220" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="221" spans="39:39">
       <c r="AM221" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="222" spans="39:39">
       <c r="AM222" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="223" spans="39:39">
       <c r="AM223" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="224" spans="39:39">
       <c r="AM224" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="225" spans="39:39">
       <c r="AM225" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="226" spans="39:39">
       <c r="AM226" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="227" spans="39:39">
       <c r="AM227" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="228" spans="39:39">
       <c r="AM228" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="229" spans="39:39">
       <c r="AM229" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="230" spans="39:39">
       <c r="AM230" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="231" spans="39:39">
       <c r="AM231" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="232" spans="39:39">
       <c r="AM232" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="233" spans="39:39">
       <c r="AM233" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="234" spans="39:39">
       <c r="AM234" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="235" spans="39:39">
       <c r="AM235" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="236" spans="39:39">
       <c r="AM236" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="237" spans="39:39">
       <c r="AM237" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="238" spans="39:39">
       <c r="AM238" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="239" spans="39:39">
       <c r="AM239" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="240" spans="39:39">
       <c r="AM240" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="241" spans="39:39">
       <c r="AM241" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="242" spans="39:39">
       <c r="AM242" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="243" spans="39:39">
       <c r="AM243" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="244" spans="39:39">
       <c r="AM244" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="245" spans="39:39">
       <c r="AM245" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="246" spans="39:39">
       <c r="AM246" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="247" spans="39:39">
       <c r="AM247" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="248" spans="39:39">
       <c r="AM248" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="249" spans="39:39">
       <c r="AM249" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="250" spans="39:39">
       <c r="AM250" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="251" spans="39:39">
       <c r="AM251" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="252" spans="39:39">
       <c r="AM252" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="253" spans="39:39">
       <c r="AM253" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="254" spans="39:39">
       <c r="AM254" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="255" spans="39:39">
       <c r="AM255" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="256" spans="39:39">
       <c r="AM256" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="257" spans="39:39">
       <c r="AM257" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="258" spans="39:39">
       <c r="AM258" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="259" spans="39:39">
       <c r="AM259" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="260" spans="39:39">
       <c r="AM260" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="261" spans="39:39">
       <c r="AM261" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="262" spans="39:39">
       <c r="AM262" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="263" spans="39:39">
       <c r="AM263" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="264" spans="39:39">
       <c r="AM264" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="265" spans="39:39">
       <c r="AM265" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="266" spans="39:39">
       <c r="AM266" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="267" spans="39:39">
       <c r="AM267" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="268" spans="39:39">
       <c r="AM268" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="269" spans="39:39">
       <c r="AM269" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="270" spans="39:39">
       <c r="AM270" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="271" spans="39:39">
       <c r="AM271" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="272" spans="39:39">
       <c r="AM272" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="273" spans="39:39">
       <c r="AM273" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="274" spans="39:39">
       <c r="AM274" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="275" spans="39:39">
       <c r="AM275" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="276" spans="39:39">
       <c r="AM276" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="277" spans="39:39">
       <c r="AM277" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="278" spans="39:39">
       <c r="AM278" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="279" spans="39:39">
       <c r="AM279" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="280" spans="39:39">
       <c r="AM280" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="281" spans="39:39">
       <c r="AM281" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="282" spans="39:39">
       <c r="AM282" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="283" spans="39:39">
       <c r="AM283" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="284" spans="39:39">
       <c r="AM284" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="285" spans="39:39">
       <c r="AM285" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="286" spans="39:39">
       <c r="AM286" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="287" spans="39:39">
       <c r="AM287" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="288" spans="39:39">
       <c r="AM288" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="289" spans="39:39">
       <c r="AM289" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AM$1:$AM$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="786">
   <si>
     <t>alias</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2929,7 +2932,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2973,7 +2976,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3000,7 +3003,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3722,6 +3725,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3746,27 +3754,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3789,122 +3797,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3931,570 +3939,570 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:95" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -4532,1588 +4540,1588 @@
   <sheetData>
     <row r="1" spans="5:39">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="5:39">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="5:39">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="5:39">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="5:39">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="5:39">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="5:39">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="5:39">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="5:39">
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="5:39">
       <c r="E10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="5:39">
       <c r="E11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="5:39">
       <c r="E12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="5:39">
       <c r="E13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="5:39">
       <c r="E14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="5:39">
       <c r="E15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="5:39">
       <c r="E16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="5:39">
       <c r="E17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="5:39">
       <c r="E18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="5:39">
       <c r="E19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="5:39">
       <c r="E20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="5:39">
       <c r="E21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="5:39">
       <c r="E22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM22" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="5:39">
       <c r="E23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="5:39">
       <c r="E24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="5:39">
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="5:39">
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM26" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="5:39">
       <c r="E27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="5:39">
       <c r="E28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM28" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="5:39">
       <c r="E29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM29" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="5:39">
       <c r="E30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM30" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="5:39">
       <c r="AM31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="5:39">
       <c r="AM32" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="39:39">
       <c r="AM33" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="39:39">
       <c r="AM34" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="39:39">
       <c r="AM35" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="39:39">
       <c r="AM36" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="39:39">
       <c r="AM37" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="39:39">
       <c r="AM38" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="39:39">
       <c r="AM39" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="39:39">
       <c r="AM40" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="39:39">
       <c r="AM41" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="39:39">
       <c r="AM42" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="39:39">
       <c r="AM43" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="39:39">
       <c r="AM44" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="39:39">
       <c r="AM45" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="39:39">
       <c r="AM46" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="39:39">
       <c r="AM47" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="39:39">
       <c r="AM48" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="39:39">
       <c r="AM49" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="39:39">
       <c r="AM50" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="39:39">
       <c r="AM51" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="39:39">
       <c r="AM52" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="39:39">
       <c r="AM53" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="39:39">
       <c r="AM54" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="39:39">
       <c r="AM55" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="39:39">
       <c r="AM56" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="39:39">
       <c r="AM57" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="39:39">
       <c r="AM58" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="39:39">
       <c r="AM59" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="39:39">
       <c r="AM60" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="39:39">
       <c r="AM61" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="39:39">
       <c r="AM62" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="39:39">
       <c r="AM63" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="39:39">
       <c r="AM64" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="39:39">
       <c r="AM65" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="39:39">
       <c r="AM66" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="39:39">
       <c r="AM67" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="39:39">
       <c r="AM68" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="39:39">
       <c r="AM69" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="39:39">
       <c r="AM70" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="39:39">
       <c r="AM71" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="39:39">
       <c r="AM72" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="39:39">
       <c r="AM73" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="39:39">
       <c r="AM74" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="39:39">
       <c r="AM75" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="39:39">
       <c r="AM76" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="39:39">
       <c r="AM77" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="39:39">
       <c r="AM78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="39:39">
       <c r="AM79" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="39:39">
       <c r="AM80" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="39:39">
       <c r="AM81" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="39:39">
       <c r="AM82" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="39:39">
       <c r="AM83" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="39:39">
       <c r="AM84" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="39:39">
       <c r="AM85" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="39:39">
       <c r="AM86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="87" spans="39:39">
       <c r="AM87" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="88" spans="39:39">
       <c r="AM88" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="39:39">
       <c r="AM89" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="90" spans="39:39">
       <c r="AM90" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="39:39">
       <c r="AM91" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="39:39">
       <c r="AM92" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="39:39">
       <c r="AM93" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="39:39">
       <c r="AM94" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="39:39">
       <c r="AM95" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96" spans="39:39">
       <c r="AM96" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="39:39">
       <c r="AM97" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="39:39">
       <c r="AM98" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="39:39">
       <c r="AM99" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100" spans="39:39">
       <c r="AM100" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="39:39">
       <c r="AM101" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="39:39">
       <c r="AM102" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" spans="39:39">
       <c r="AM103" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="39:39">
       <c r="AM104" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" spans="39:39">
       <c r="AM105" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="39:39">
       <c r="AM106" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107" spans="39:39">
       <c r="AM107" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="108" spans="39:39">
       <c r="AM108" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109" spans="39:39">
       <c r="AM109" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110" spans="39:39">
       <c r="AM110" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" spans="39:39">
       <c r="AM111" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="112" spans="39:39">
       <c r="AM112" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="113" spans="39:39">
       <c r="AM113" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="39:39">
       <c r="AM114" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="39:39">
       <c r="AM115" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116" spans="39:39">
       <c r="AM116" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117" spans="39:39">
       <c r="AM117" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="39:39">
       <c r="AM118" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="119" spans="39:39">
       <c r="AM119" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="39:39">
       <c r="AM120" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="121" spans="39:39">
       <c r="AM121" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122" spans="39:39">
       <c r="AM122" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="39:39">
       <c r="AM123" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124" spans="39:39">
       <c r="AM124" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="125" spans="39:39">
       <c r="AM125" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="126" spans="39:39">
       <c r="AM126" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127" spans="39:39">
       <c r="AM127" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="128" spans="39:39">
       <c r="AM128" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="129" spans="39:39">
       <c r="AM129" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="130" spans="39:39">
       <c r="AM130" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="131" spans="39:39">
       <c r="AM131" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="132" spans="39:39">
       <c r="AM132" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="133" spans="39:39">
       <c r="AM133" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="39:39">
       <c r="AM134" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="135" spans="39:39">
       <c r="AM135" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="136" spans="39:39">
       <c r="AM136" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="137" spans="39:39">
       <c r="AM137" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="138" spans="39:39">
       <c r="AM138" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="139" spans="39:39">
       <c r="AM139" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="140" spans="39:39">
       <c r="AM140" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" spans="39:39">
       <c r="AM141" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="39:39">
       <c r="AM142" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="39:39">
       <c r="AM143" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="144" spans="39:39">
       <c r="AM144" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="39:39">
       <c r="AM145" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="39:39">
       <c r="AM146" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="147" spans="39:39">
       <c r="AM147" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="39:39">
       <c r="AM148" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" spans="39:39">
       <c r="AM149" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="39:39">
       <c r="AM150" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151" spans="39:39">
       <c r="AM151" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="152" spans="39:39">
       <c r="AM152" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="153" spans="39:39">
       <c r="AM153" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="154" spans="39:39">
       <c r="AM154" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="155" spans="39:39">
       <c r="AM155" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="156" spans="39:39">
       <c r="AM156" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="157" spans="39:39">
       <c r="AM157" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="158" spans="39:39">
       <c r="AM158" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="159" spans="39:39">
       <c r="AM159" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="160" spans="39:39">
       <c r="AM160" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="39:39">
       <c r="AM161" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="162" spans="39:39">
       <c r="AM162" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="163" spans="39:39">
       <c r="AM163" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="164" spans="39:39">
       <c r="AM164" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="165" spans="39:39">
       <c r="AM165" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="166" spans="39:39">
       <c r="AM166" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="167" spans="39:39">
       <c r="AM167" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="168" spans="39:39">
       <c r="AM168" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="169" spans="39:39">
       <c r="AM169" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" spans="39:39">
       <c r="AM170" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="171" spans="39:39">
       <c r="AM171" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="172" spans="39:39">
       <c r="AM172" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="173" spans="39:39">
       <c r="AM173" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="174" spans="39:39">
       <c r="AM174" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="175" spans="39:39">
       <c r="AM175" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="176" spans="39:39">
       <c r="AM176" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="177" spans="39:39">
       <c r="AM177" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="178" spans="39:39">
       <c r="AM178" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179" spans="39:39">
       <c r="AM179" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="180" spans="39:39">
       <c r="AM180" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="181" spans="39:39">
       <c r="AM181" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="39:39">
       <c r="AM182" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="183" spans="39:39">
       <c r="AM183" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="184" spans="39:39">
       <c r="AM184" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="39:39">
       <c r="AM185" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="39:39">
       <c r="AM186" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="187" spans="39:39">
       <c r="AM187" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="188" spans="39:39">
       <c r="AM188" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="39:39">
       <c r="AM189" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="190" spans="39:39">
       <c r="AM190" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="39:39">
       <c r="AM191" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="192" spans="39:39">
       <c r="AM192" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="193" spans="39:39">
       <c r="AM193" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="194" spans="39:39">
       <c r="AM194" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="195" spans="39:39">
       <c r="AM195" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="196" spans="39:39">
       <c r="AM196" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="197" spans="39:39">
       <c r="AM197" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="198" spans="39:39">
       <c r="AM198" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="39:39">
       <c r="AM199" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="200" spans="39:39">
       <c r="AM200" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="201" spans="39:39">
       <c r="AM201" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="202" spans="39:39">
       <c r="AM202" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="203" spans="39:39">
       <c r="AM203" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="204" spans="39:39">
       <c r="AM204" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="205" spans="39:39">
       <c r="AM205" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="39:39">
       <c r="AM206" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="207" spans="39:39">
       <c r="AM207" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="208" spans="39:39">
       <c r="AM208" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="209" spans="39:39">
       <c r="AM209" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="210" spans="39:39">
       <c r="AM210" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="211" spans="39:39">
       <c r="AM211" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="212" spans="39:39">
       <c r="AM212" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="213" spans="39:39">
       <c r="AM213" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="214" spans="39:39">
       <c r="AM214" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="215" spans="39:39">
       <c r="AM215" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="216" spans="39:39">
       <c r="AM216" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="217" spans="39:39">
       <c r="AM217" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="39:39">
       <c r="AM218" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="219" spans="39:39">
       <c r="AM219" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="220" spans="39:39">
       <c r="AM220" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="221" spans="39:39">
       <c r="AM221" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="222" spans="39:39">
       <c r="AM222" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="223" spans="39:39">
       <c r="AM223" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="224" spans="39:39">
       <c r="AM224" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="225" spans="39:39">
       <c r="AM225" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="226" spans="39:39">
       <c r="AM226" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="227" spans="39:39">
       <c r="AM227" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="228" spans="39:39">
       <c r="AM228" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="229" spans="39:39">
       <c r="AM229" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="39:39">
       <c r="AM230" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="231" spans="39:39">
       <c r="AM231" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="232" spans="39:39">
       <c r="AM232" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="233" spans="39:39">
       <c r="AM233" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="234" spans="39:39">
       <c r="AM234" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="235" spans="39:39">
       <c r="AM235" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="236" spans="39:39">
       <c r="AM236" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="237" spans="39:39">
       <c r="AM237" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="238" spans="39:39">
       <c r="AM238" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="239" spans="39:39">
       <c r="AM239" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="240" spans="39:39">
       <c r="AM240" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="241" spans="39:39">
       <c r="AM241" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="242" spans="39:39">
       <c r="AM242" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="243" spans="39:39">
       <c r="AM243" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="244" spans="39:39">
       <c r="AM244" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="245" spans="39:39">
       <c r="AM245" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="246" spans="39:39">
       <c r="AM246" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="247" spans="39:39">
       <c r="AM247" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="248" spans="39:39">
       <c r="AM248" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="249" spans="39:39">
       <c r="AM249" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="250" spans="39:39">
       <c r="AM250" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="251" spans="39:39">
       <c r="AM251" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="252" spans="39:39">
       <c r="AM252" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="253" spans="39:39">
       <c r="AM253" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="254" spans="39:39">
       <c r="AM254" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="255" spans="39:39">
       <c r="AM255" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="256" spans="39:39">
       <c r="AM256" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="257" spans="39:39">
       <c r="AM257" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="258" spans="39:39">
       <c r="AM258" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="259" spans="39:39">
       <c r="AM259" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="260" spans="39:39">
       <c r="AM260" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="261" spans="39:39">
       <c r="AM261" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="262" spans="39:39">
       <c r="AM262" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="263" spans="39:39">
       <c r="AM263" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="264" spans="39:39">
       <c r="AM264" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="265" spans="39:39">
       <c r="AM265" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="266" spans="39:39">
       <c r="AM266" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="267" spans="39:39">
       <c r="AM267" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="268" spans="39:39">
       <c r="AM268" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="269" spans="39:39">
       <c r="AM269" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="270" spans="39:39">
       <c r="AM270" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="271" spans="39:39">
       <c r="AM271" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="272" spans="39:39">
       <c r="AM272" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="273" spans="39:39">
       <c r="AM273" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="274" spans="39:39">
       <c r="AM274" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="275" spans="39:39">
       <c r="AM275" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="276" spans="39:39">
       <c r="AM276" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="277" spans="39:39">
       <c r="AM277" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="278" spans="39:39">
       <c r="AM278" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="279" spans="39:39">
       <c r="AM279" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="280" spans="39:39">
       <c r="AM280" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="281" spans="39:39">
       <c r="AM281" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="282" spans="39:39">
       <c r="AM282" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="283" spans="39:39">
       <c r="AM283" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="284" spans="39:39">
       <c r="AM284" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="285" spans="39:39">
       <c r="AM285" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="286" spans="39:39">
       <c r="AM286" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="287" spans="39:39">
       <c r="AM287" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="288" spans="39:39">
       <c r="AM288" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="289" spans="39:39">
       <c r="AM289" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AM$1:$AM$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="787">
   <si>
     <t>alias</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2932,7 +2935,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2976,7 +2979,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +3006,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3730,6 +3733,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3754,27 +3762,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3797,122 +3805,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3939,570 +3947,570 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:95" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -4540,1588 +4548,1588 @@
   <sheetData>
     <row r="1" spans="5:39">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="5:39">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="5:39">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="5:39">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="5:39">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="5:39">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="5:39">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="5:39">
       <c r="E8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="5:39">
       <c r="E9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="5:39">
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="5:39">
       <c r="E11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="5:39">
       <c r="E12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="5:39">
       <c r="E13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="5:39">
       <c r="E14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="5:39">
       <c r="E15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="5:39">
       <c r="E16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="5:39">
       <c r="E17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="5:39">
       <c r="E18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="5:39">
       <c r="E19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="5:39">
       <c r="E20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="5:39">
       <c r="E21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="5:39">
       <c r="E22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="5:39">
       <c r="E23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="5:39">
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="5:39">
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="5:39">
       <c r="E26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="5:39">
       <c r="E27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="5:39">
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="5:39">
       <c r="E29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="5:39">
       <c r="E30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="5:39">
       <c r="AM31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="5:39">
       <c r="AM32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="39:39">
       <c r="AM33" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="39:39">
       <c r="AM34" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="39:39">
       <c r="AM35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="39:39">
       <c r="AM36" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="39:39">
       <c r="AM37" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="39:39">
       <c r="AM38" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="39:39">
       <c r="AM39" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="39:39">
       <c r="AM40" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="39:39">
       <c r="AM41" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="39:39">
       <c r="AM42" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="39:39">
       <c r="AM43" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="39:39">
       <c r="AM44" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="39:39">
       <c r="AM45" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="39:39">
       <c r="AM46" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="39:39">
       <c r="AM47" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="39:39">
       <c r="AM48" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="39:39">
       <c r="AM49" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="39:39">
       <c r="AM50" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="39:39">
       <c r="AM51" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="39:39">
       <c r="AM52" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="39:39">
       <c r="AM53" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="39:39">
       <c r="AM54" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="39:39">
       <c r="AM55" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="39:39">
       <c r="AM56" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="39:39">
       <c r="AM57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="39:39">
       <c r="AM58" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="39:39">
       <c r="AM59" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="39:39">
       <c r="AM60" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="39:39">
       <c r="AM61" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="39:39">
       <c r="AM62" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="39:39">
       <c r="AM63" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="39:39">
       <c r="AM64" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="39:39">
       <c r="AM65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="39:39">
       <c r="AM66" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="39:39">
       <c r="AM67" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="39:39">
       <c r="AM68" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="39:39">
       <c r="AM69" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="39:39">
       <c r="AM70" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="39:39">
       <c r="AM71" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="39:39">
       <c r="AM72" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="39:39">
       <c r="AM73" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="39:39">
       <c r="AM74" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="39:39">
       <c r="AM75" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" spans="39:39">
       <c r="AM76" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="39:39">
       <c r="AM77" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="39:39">
       <c r="AM78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="39:39">
       <c r="AM79" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="39:39">
       <c r="AM80" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="39:39">
       <c r="AM81" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="39:39">
       <c r="AM82" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="39:39">
       <c r="AM83" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="39:39">
       <c r="AM84" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="39:39">
       <c r="AM85" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86" spans="39:39">
       <c r="AM86" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="39:39">
       <c r="AM87" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="39:39">
       <c r="AM88" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="89" spans="39:39">
       <c r="AM89" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="39:39">
       <c r="AM90" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="39:39">
       <c r="AM91" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="39:39">
       <c r="AM92" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="39:39">
       <c r="AM93" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="39:39">
       <c r="AM94" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="39:39">
       <c r="AM95" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" spans="39:39">
       <c r="AM96" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" spans="39:39">
       <c r="AM97" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="39:39">
       <c r="AM98" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99" spans="39:39">
       <c r="AM99" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="39:39">
       <c r="AM100" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="39:39">
       <c r="AM101" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="39:39">
       <c r="AM102" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="39:39">
       <c r="AM103" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="104" spans="39:39">
       <c r="AM104" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" spans="39:39">
       <c r="AM105" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106" spans="39:39">
       <c r="AM106" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107" spans="39:39">
       <c r="AM107" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="108" spans="39:39">
       <c r="AM108" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="39:39">
       <c r="AM109" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="39:39">
       <c r="AM110" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" spans="39:39">
       <c r="AM111" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" spans="39:39">
       <c r="AM112" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="39:39">
       <c r="AM113" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="39:39">
       <c r="AM114" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115" spans="39:39">
       <c r="AM115" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="39:39">
       <c r="AM116" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="39:39">
       <c r="AM117" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" spans="39:39">
       <c r="AM118" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="39:39">
       <c r="AM119" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="39:39">
       <c r="AM120" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="39:39">
       <c r="AM121" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="39:39">
       <c r="AM122" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="39:39">
       <c r="AM123" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="124" spans="39:39">
       <c r="AM124" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="39:39">
       <c r="AM125" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="126" spans="39:39">
       <c r="AM126" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="127" spans="39:39">
       <c r="AM127" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="128" spans="39:39">
       <c r="AM128" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="129" spans="39:39">
       <c r="AM129" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="130" spans="39:39">
       <c r="AM130" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="131" spans="39:39">
       <c r="AM131" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="132" spans="39:39">
       <c r="AM132" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="39:39">
       <c r="AM133" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="39:39">
       <c r="AM134" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="39:39">
       <c r="AM135" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="136" spans="39:39">
       <c r="AM136" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="39:39">
       <c r="AM137" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="138" spans="39:39">
       <c r="AM138" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="39:39">
       <c r="AM139" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="39:39">
       <c r="AM140" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="39:39">
       <c r="AM141" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="142" spans="39:39">
       <c r="AM142" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="143" spans="39:39">
       <c r="AM143" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144" spans="39:39">
       <c r="AM144" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="145" spans="39:39">
       <c r="AM145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="146" spans="39:39">
       <c r="AM146" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="39:39">
       <c r="AM147" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="148" spans="39:39">
       <c r="AM148" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="149" spans="39:39">
       <c r="AM149" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150" spans="39:39">
       <c r="AM150" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="151" spans="39:39">
       <c r="AM151" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="152" spans="39:39">
       <c r="AM152" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" spans="39:39">
       <c r="AM153" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="154" spans="39:39">
       <c r="AM154" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="155" spans="39:39">
       <c r="AM155" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="156" spans="39:39">
       <c r="AM156" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="157" spans="39:39">
       <c r="AM157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="158" spans="39:39">
       <c r="AM158" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="159" spans="39:39">
       <c r="AM159" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="160" spans="39:39">
       <c r="AM160" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="161" spans="39:39">
       <c r="AM161" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="162" spans="39:39">
       <c r="AM162" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="163" spans="39:39">
       <c r="AM163" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="164" spans="39:39">
       <c r="AM164" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="165" spans="39:39">
       <c r="AM165" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="166" spans="39:39">
       <c r="AM166" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="167" spans="39:39">
       <c r="AM167" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="168" spans="39:39">
       <c r="AM168" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="169" spans="39:39">
       <c r="AM169" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" spans="39:39">
       <c r="AM170" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="171" spans="39:39">
       <c r="AM171" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="172" spans="39:39">
       <c r="AM172" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="173" spans="39:39">
       <c r="AM173" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" spans="39:39">
       <c r="AM174" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="175" spans="39:39">
       <c r="AM175" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" spans="39:39">
       <c r="AM176" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="177" spans="39:39">
       <c r="AM177" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="178" spans="39:39">
       <c r="AM178" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" spans="39:39">
       <c r="AM179" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="180" spans="39:39">
       <c r="AM180" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="181" spans="39:39">
       <c r="AM181" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="182" spans="39:39">
       <c r="AM182" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="183" spans="39:39">
       <c r="AM183" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="184" spans="39:39">
       <c r="AM184" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="185" spans="39:39">
       <c r="AM185" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="186" spans="39:39">
       <c r="AM186" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="187" spans="39:39">
       <c r="AM187" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="188" spans="39:39">
       <c r="AM188" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="189" spans="39:39">
       <c r="AM189" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="39:39">
       <c r="AM190" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="191" spans="39:39">
       <c r="AM191" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="192" spans="39:39">
       <c r="AM192" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="39:39">
       <c r="AM193" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="194" spans="39:39">
       <c r="AM194" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="195" spans="39:39">
       <c r="AM195" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="39:39">
       <c r="AM196" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="197" spans="39:39">
       <c r="AM197" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="39:39">
       <c r="AM198" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="199" spans="39:39">
       <c r="AM199" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="200" spans="39:39">
       <c r="AM200" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="201" spans="39:39">
       <c r="AM201" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="202" spans="39:39">
       <c r="AM202" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="203" spans="39:39">
       <c r="AM203" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="204" spans="39:39">
       <c r="AM204" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="205" spans="39:39">
       <c r="AM205" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="206" spans="39:39">
       <c r="AM206" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="207" spans="39:39">
       <c r="AM207" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="208" spans="39:39">
       <c r="AM208" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="209" spans="39:39">
       <c r="AM209" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="39:39">
       <c r="AM210" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="211" spans="39:39">
       <c r="AM211" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="212" spans="39:39">
       <c r="AM212" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="213" spans="39:39">
       <c r="AM213" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="214" spans="39:39">
       <c r="AM214" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="215" spans="39:39">
       <c r="AM215" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="216" spans="39:39">
       <c r="AM216" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="39:39">
       <c r="AM217" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="218" spans="39:39">
       <c r="AM218" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="219" spans="39:39">
       <c r="AM219" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="220" spans="39:39">
       <c r="AM220" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="221" spans="39:39">
       <c r="AM221" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="222" spans="39:39">
       <c r="AM222" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="223" spans="39:39">
       <c r="AM223" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="224" spans="39:39">
       <c r="AM224" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="225" spans="39:39">
       <c r="AM225" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="226" spans="39:39">
       <c r="AM226" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="227" spans="39:39">
       <c r="AM227" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="228" spans="39:39">
       <c r="AM228" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="229" spans="39:39">
       <c r="AM229" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="230" spans="39:39">
       <c r="AM230" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="231" spans="39:39">
       <c r="AM231" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="232" spans="39:39">
       <c r="AM232" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="233" spans="39:39">
       <c r="AM233" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="234" spans="39:39">
       <c r="AM234" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="235" spans="39:39">
       <c r="AM235" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="236" spans="39:39">
       <c r="AM236" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="237" spans="39:39">
       <c r="AM237" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="238" spans="39:39">
       <c r="AM238" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="239" spans="39:39">
       <c r="AM239" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="240" spans="39:39">
       <c r="AM240" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="241" spans="39:39">
       <c r="AM241" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="242" spans="39:39">
       <c r="AM242" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="243" spans="39:39">
       <c r="AM243" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="244" spans="39:39">
       <c r="AM244" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="245" spans="39:39">
       <c r="AM245" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="246" spans="39:39">
       <c r="AM246" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="247" spans="39:39">
       <c r="AM247" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="248" spans="39:39">
       <c r="AM248" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="249" spans="39:39">
       <c r="AM249" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="250" spans="39:39">
       <c r="AM250" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="251" spans="39:39">
       <c r="AM251" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="252" spans="39:39">
       <c r="AM252" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="253" spans="39:39">
       <c r="AM253" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="254" spans="39:39">
       <c r="AM254" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="255" spans="39:39">
       <c r="AM255" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="256" spans="39:39">
       <c r="AM256" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="257" spans="39:39">
       <c r="AM257" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="258" spans="39:39">
       <c r="AM258" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="259" spans="39:39">
       <c r="AM259" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="260" spans="39:39">
       <c r="AM260" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="261" spans="39:39">
       <c r="AM261" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="262" spans="39:39">
       <c r="AM262" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="263" spans="39:39">
       <c r="AM263" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="264" spans="39:39">
       <c r="AM264" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="265" spans="39:39">
       <c r="AM265" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="266" spans="39:39">
       <c r="AM266" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="267" spans="39:39">
       <c r="AM267" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="268" spans="39:39">
       <c r="AM268" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="269" spans="39:39">
       <c r="AM269" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="270" spans="39:39">
       <c r="AM270" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="271" spans="39:39">
       <c r="AM271" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="272" spans="39:39">
       <c r="AM272" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="273" spans="39:39">
       <c r="AM273" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="274" spans="39:39">
       <c r="AM274" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="275" spans="39:39">
       <c r="AM275" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="276" spans="39:39">
       <c r="AM276" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="277" spans="39:39">
       <c r="AM277" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="278" spans="39:39">
       <c r="AM278" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="279" spans="39:39">
       <c r="AM279" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="280" spans="39:39">
       <c r="AM280" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="281" spans="39:39">
       <c r="AM281" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="282" spans="39:39">
       <c r="AM282" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="283" spans="39:39">
       <c r="AM283" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="284" spans="39:39">
       <c r="AM284" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="285" spans="39:39">
       <c r="AM285" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="286" spans="39:39">
       <c r="AM286" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="287" spans="39:39">
       <c r="AM287" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="288" spans="39:39">
       <c r="AM288" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="289" spans="39:39">
       <c r="AM289" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AM$1:$AM$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AM$1:$AM$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="792">
   <si>
     <t>alias</t>
   </si>
@@ -938,7 +938,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -959,13 +959,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -992,7 +992,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1004,25 +1004,25 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1034,13 +1034,13 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation status of sample</t>
+    <t>oxygenation_status_of_sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1052,37 +1052,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1097,31 +1097,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1133,37 +1133,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1175,19 +1175,19 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>organism count</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>organism_count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1406,9 +1406,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1427,6 +1424,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1628,6 +1628,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1637,9 +1640,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1679,7 +1679,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1748,6 +1748,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1823,6 +1826,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1844,6 +1850,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1889,6 +1898,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1901,6 +1913,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1910,9 +1925,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1937,6 +1949,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1997,12 +2012,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2060,82 +2075,82 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>biochemical oxygen demand</t>
+    <t>biochemical_oxygen_demand</t>
   </si>
   <si>
     <t>(Optional) A measure of the relative oxygen-depletion effect of a waste contaminant (Units: mg/L (over 5 days at 20C))</t>
   </si>
   <si>
-    <t>chemical oxygen demand</t>
-  </si>
-  <si>
-    <t>pre-treatment</t>
+    <t>chemical_oxygen_demand</t>
+  </si>
+  <si>
+    <t>pretreatment</t>
   </si>
   <si>
     <t>(Optional) The process of pre-treatment removes materials that can be easily collected from the raw wastewater</t>
   </si>
   <si>
-    <t>primary treatment</t>
+    <t>primary_treatment</t>
   </si>
   <si>
     <t>(Optional) The process to produce both a generally homogeneous liquid capable of being treated biologically and a sludge that can be separately treated or processed</t>
   </si>
   <si>
-    <t>reactor type</t>
+    <t>reactor_type</t>
   </si>
   <si>
     <t>(Optional) Anaerobic digesters can be designed and engineered to operate using a number of different process configurations, as batch or continuous, mesophilic, high solid or low solid, and single stage or multistage</t>
   </si>
   <si>
-    <t>secondary treatment</t>
+    <t>secondary_treatment</t>
   </si>
   <si>
     <t>(Optional) The process for substantially degrading the biological content of the sewage</t>
   </si>
   <si>
-    <t>sludge retention time</t>
-  </si>
-  <si>
-    <t>(Optional) The time activated sludge remains in reactor (Units: weeks)</t>
-  </si>
-  <si>
-    <t>tertiary treatment</t>
+    <t>sludge_retention_time</t>
+  </si>
+  <si>
+    <t>(Optional) The time activated sludge remains in reactor (Units: days)</t>
+  </si>
+  <si>
+    <t>tertiary_treatment</t>
   </si>
   <si>
     <t>(Optional) The process providing a final treatment stage to raise the effluent quality before it is discharged to the receiving environment</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>industrial effluent percent</t>
+    <t>industrial_effluent_percent</t>
   </si>
   <si>
     <t>(Optional) Percentage of industrial effluents received by wastewater treatment plant (Units: %)</t>
   </si>
   <si>
-    <t>sewage type</t>
+    <t>sewage_type</t>
   </si>
   <si>
     <t>(Optional) Type of sewage based on origin: wastewater treatment plant (municipal or industrial), open sewer line, river, stream, stagnant pool, or other.</t>
   </si>
   <si>
-    <t>wastewater type</t>
+    <t>wastewater_type</t>
   </si>
   <si>
     <t>(Optional) The origin of wastewater such as human waste, rainfall, storm drains, etc.</t>
@@ -2147,13 +2162,13 @@
     <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>pH</t>
+    <t>ph</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
   </si>
   <si>
-    <t>efficiency percent</t>
+    <t>efficiency_percent</t>
   </si>
   <si>
     <t>(Optional) Percentage of volatile solids removed from the anaerobic digestor (Units: %)</t>
@@ -2165,46 +2180,46 @@
     <t>(Optional) Amount or concentration of substances such as paints, adhesives, mayonnaise, hair colorants, emulsified oils, etc.; can include multiple emulsion types (Units: µg/L)</t>
   </si>
   <si>
-    <t>gaseous substances</t>
+    <t>gaseous_substances</t>
   </si>
   <si>
     <t>(Optional) Amount or concentration of substances such as hydrogen sulfide, carbon dioxide, methane, etc.; can include multiple substances (Units: µmol/L)</t>
   </si>
   <si>
-    <t>inorganic particles</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles (Units: mol/L)</t>
-  </si>
-  <si>
-    <t>organic particles</t>
+    <t>inorganic_particles</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>organic_particles</t>
   </si>
   <si>
     <t>(Optional) Concentration of particles such as faeces, hairs, food, vomit, paper fibers, plant material, humus, etc. (Units: g/L)</t>
   </si>
   <si>
-    <t>soluble inorganic material</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc. (Units: parts/million)</t>
-  </si>
-  <si>
-    <t>soluble organic material</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc. (Units: parts/million)</t>
-  </si>
-  <si>
-    <t>suspended solids</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million)</t>
-  </si>
-  <si>
-    <t>total phosphate</t>
-  </si>
-  <si>
-    <t>(Optional) Total amount or concentration of phosphate (Units: µmol/L)</t>
+    <t>soluble_inorganic_material</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc. (Units: g/L)</t>
+  </si>
+  <si>
+    <t>soluble_organic_material</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc. (Units: g/L)</t>
+  </si>
+  <si>
+    <t>suspended_solids</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: g/L)</t>
+  </si>
+  <si>
+    <t>total_phosphate</t>
+  </si>
+  <si>
+    <t>(Optional) Total amount or concentration of phosphate (Units: µg/L)</t>
   </si>
   <si>
     <t>nitrate</t>
@@ -2213,7 +2228,7 @@
     <t>(Optional) Concentration of nitrate (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total nitrogen concentration</t>
+    <t>total_nitrogen_concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
@@ -2237,10 +2252,10 @@
     <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total nitrogen content</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>total_nitrogen_content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2249,7 +2264,7 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2261,121 +2276,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative control type</t>
+    <t>negative_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive control type</t>
+    <t>positive_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2390,10 +2405,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
-  </si>
-  <si>
-    <t>chemical administration</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+  </si>
+  <si>
+    <t>chemical_administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4055,175 +4070,175 @@
         <v>383</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:95" ht="150" customHeight="1">
@@ -4342,175 +4357,175 @@
         <v>384</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -4540,7 +4555,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AM289"/>
+  <dimension ref="E1:AM294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6132,6 +6147,31 @@
         <v>673</v>
       </c>
     </row>
+    <row r="290" spans="39:39">
+      <c r="AM290" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="291" spans="39:39">
+      <c r="AM291" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="292" spans="39:39">
+      <c r="AM292" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="293" spans="39:39">
+      <c r="AM293" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="294" spans="39:39">
+      <c r="AM294" t="s">
+        <v>678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AM$1:$AM$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AM$1:$AM$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="787">
   <si>
     <t>alias</t>
   </si>
@@ -938,7 +938,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -959,13 +959,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -992,7 +992,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1004,25 +1004,25 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1034,13 +1034,13 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation_status_of_sample</t>
+    <t>oxygenation status of sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1052,37 +1052,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1097,31 +1097,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1133,37 +1133,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1175,19 +1175,19 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>organism_count</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>organism count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1406,6 +1406,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1424,9 +1427,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1628,9 +1628,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1640,6 +1637,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1679,7 +1679,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1748,9 +1748,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1826,9 +1823,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1850,9 +1844,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1898,9 +1889,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1913,9 +1901,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1925,6 +1910,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1949,9 +1937,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2012,12 +1997,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2075,82 +2060,82 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>biochemical_oxygen_demand</t>
+    <t>biochemical oxygen demand</t>
   </si>
   <si>
     <t>(Optional) A measure of the relative oxygen-depletion effect of a waste contaminant (Units: mg/L (over 5 days at 20C))</t>
   </si>
   <si>
-    <t>chemical_oxygen_demand</t>
-  </si>
-  <si>
-    <t>pretreatment</t>
+    <t>chemical oxygen demand</t>
+  </si>
+  <si>
+    <t>pre-treatment</t>
   </si>
   <si>
     <t>(Optional) The process of pre-treatment removes materials that can be easily collected from the raw wastewater</t>
   </si>
   <si>
-    <t>primary_treatment</t>
+    <t>primary treatment</t>
   </si>
   <si>
     <t>(Optional) The process to produce both a generally homogeneous liquid capable of being treated biologically and a sludge that can be separately treated or processed</t>
   </si>
   <si>
-    <t>reactor_type</t>
+    <t>reactor type</t>
   </si>
   <si>
     <t>(Optional) Anaerobic digesters can be designed and engineered to operate using a number of different process configurations, as batch or continuous, mesophilic, high solid or low solid, and single stage or multistage</t>
   </si>
   <si>
-    <t>secondary_treatment</t>
+    <t>secondary treatment</t>
   </si>
   <si>
     <t>(Optional) The process for substantially degrading the biological content of the sewage</t>
   </si>
   <si>
-    <t>sludge_retention_time</t>
-  </si>
-  <si>
-    <t>(Optional) The time activated sludge remains in reactor (Units: days)</t>
-  </si>
-  <si>
-    <t>tertiary_treatment</t>
+    <t>sludge retention time</t>
+  </si>
+  <si>
+    <t>(Optional) The time activated sludge remains in reactor (Units: weeks)</t>
+  </si>
+  <si>
+    <t>tertiary treatment</t>
   </si>
   <si>
     <t>(Optional) The process providing a final treatment stage to raise the effluent quality before it is discharged to the receiving environment</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>industrial_effluent_percent</t>
+    <t>industrial effluent percent</t>
   </si>
   <si>
     <t>(Optional) Percentage of industrial effluents received by wastewater treatment plant (Units: %)</t>
   </si>
   <si>
-    <t>sewage_type</t>
+    <t>sewage type</t>
   </si>
   <si>
     <t>(Optional) Type of sewage based on origin: wastewater treatment plant (municipal or industrial), open sewer line, river, stream, stagnant pool, or other.</t>
   </si>
   <si>
-    <t>wastewater_type</t>
+    <t>wastewater type</t>
   </si>
   <si>
     <t>(Optional) The origin of wastewater such as human waste, rainfall, storm drains, etc.</t>
@@ -2162,13 +2147,13 @@
     <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>ph</t>
+    <t>pH</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
   </si>
   <si>
-    <t>efficiency_percent</t>
+    <t>efficiency percent</t>
   </si>
   <si>
     <t>(Optional) Percentage of volatile solids removed from the anaerobic digestor (Units: %)</t>
@@ -2180,46 +2165,46 @@
     <t>(Optional) Amount or concentration of substances such as paints, adhesives, mayonnaise, hair colorants, emulsified oils, etc.; can include multiple emulsion types (Units: µg/L)</t>
   </si>
   <si>
-    <t>gaseous_substances</t>
+    <t>gaseous substances</t>
   </si>
   <si>
     <t>(Optional) Amount or concentration of substances such as hydrogen sulfide, carbon dioxide, methane, etc.; can include multiple substances (Units: µmol/L)</t>
   </si>
   <si>
-    <t>inorganic_particles</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>organic_particles</t>
+    <t>inorganic particles</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles (Units: mol/L)</t>
+  </si>
+  <si>
+    <t>organic particles</t>
   </si>
   <si>
     <t>(Optional) Concentration of particles such as faeces, hairs, food, vomit, paper fibers, plant material, humus, etc. (Units: g/L)</t>
   </si>
   <si>
-    <t>soluble_inorganic_material</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc. (Units: g/L)</t>
-  </si>
-  <si>
-    <t>soluble_organic_material</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc. (Units: g/L)</t>
-  </si>
-  <si>
-    <t>suspended_solids</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: g/L)</t>
-  </si>
-  <si>
-    <t>total_phosphate</t>
-  </si>
-  <si>
-    <t>(Optional) Total amount or concentration of phosphate (Units: µg/L)</t>
+    <t>soluble inorganic material</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc. (Units: parts/million)</t>
+  </si>
+  <si>
+    <t>soluble organic material</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc. (Units: parts/million)</t>
+  </si>
+  <si>
+    <t>suspended solids</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million)</t>
+  </si>
+  <si>
+    <t>total phosphate</t>
+  </si>
+  <si>
+    <t>(Optional) Total amount or concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrate</t>
@@ -2228,7 +2213,7 @@
     <t>(Optional) Concentration of nitrate (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total_nitrogen_concentration</t>
+    <t>total nitrogen concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
@@ -2252,10 +2237,10 @@
     <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total_nitrogen_content</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
+    <t>total nitrogen content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2264,7 +2249,7 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2276,121 +2261,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative_control_type</t>
+    <t>negative control type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive_control_type</t>
+    <t>positive control type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2405,10 +2390,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>chemical_administration</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+  </si>
+  <si>
+    <t>chemical administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4070,175 +4055,175 @@
         <v>383</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>688</v>
-      </c>
       <c r="AS1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:95" ht="150" customHeight="1">
@@ -4357,175 +4342,175 @@
         <v>384</v>
       </c>
       <c r="AM2" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>687</v>
-      </c>
       <c r="AR2" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4540,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AM294"/>
+  <dimension ref="E1:AM289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6147,31 +6132,6 @@
         <v>673</v>
       </c>
     </row>
-    <row r="290" spans="39:39">
-      <c r="AM290" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="291" spans="39:39">
-      <c r="AM291" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="292" spans="39:39">
-      <c r="AM292" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="293" spans="39:39">
-      <c r="AM293" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="294" spans="39:39">
-      <c r="AM294" t="s">
-        <v>678</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -18,25 +18,25 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AM$1:$AM$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$F$1:$F$5</definedName>
-    <definedName name="oxygenationstatusofsample">'cv_sample'!$N$1:$N$2</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$H$1:$H$5</definedName>
+    <definedName name="oxygenationstatusofsample">'cv_sample'!$P$1:$P$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$H$1:$H$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$W$1:$W$3</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$J$1:$J$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$Y$1:$Y$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$E$1:$E$30</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$G$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="791">
   <si>
     <t>alias</t>
   </si>
@@ -840,6 +840,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3930,7 +3942,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CQ2"/>
+  <dimension ref="A1:CS2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3939,7 +3951,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:97">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3953,19 +3965,19 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>322</v>
@@ -3980,10 +3992,10 @@
         <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>336</v>
@@ -4007,10 +4019,10 @@
         <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>357</v>
@@ -4055,19 +4067,19 @@
         <v>383</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>674</v>
+        <v>385</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>676</v>
+        <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>678</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>683</v>
@@ -4225,8 +4237,14 @@
       <c r="CQ1" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="2" spans="1:95" ht="150" customHeight="1">
+      <c r="CR1" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:97" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4240,19 +4258,19 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>323</v>
@@ -4267,10 +4285,10 @@
         <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>337</v>
@@ -4294,10 +4312,10 @@
         <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>358</v>
@@ -4342,19 +4360,19 @@
         <v>384</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>675</v>
+        <v>386</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>677</v>
+        <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>684</v>
@@ -4512,25 +4530,31 @@
       <c r="CQ2" s="2" t="s">
         <v>786</v>
       </c>
+      <c r="CR2" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>790</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
       <formula1>oxygenationstatusofsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -4540,1596 +4564,1596 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AM289"/>
+  <dimension ref="G1:AO289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:39">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="7:41">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>315</v>
+      </c>
+      <c r="P1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="7:41">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="7:41">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="7:41">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="7:41">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="7:41">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="7:41">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="7:41">
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="7:41">
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="7:41">
+      <c r="G10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="7:41">
+      <c r="G11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="7:41">
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="7:41">
+      <c r="G13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="7:41">
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="7:41">
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="7:41">
+      <c r="G16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="7:41">
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="7:41">
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="7:41">
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="7:41">
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="7:41">
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="7:41">
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="7:41">
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="7:41">
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="7:41">
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="7:41">
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="7:41">
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="7:41">
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="7:41">
+      <c r="G29" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N1" t="s">
-        <v>330</v>
-      </c>
-      <c r="W1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="2" spans="5:39">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AO29" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="30" spans="7:41">
+      <c r="G30" t="s">
         <v>303</v>
       </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N2" t="s">
-        <v>331</v>
-      </c>
-      <c r="W2" t="s">
-        <v>351</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="3" spans="5:39">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
-      <c r="W3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="5:39">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
-        <v>314</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="5" spans="5:39">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="5:39">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="5:39">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="5:39">
-      <c r="E8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="5:39">
-      <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="5:39">
-      <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" spans="5:39">
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="5:39">
-      <c r="E12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="13" spans="5:39">
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="14" spans="5:39">
-      <c r="E14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="5:39">
-      <c r="E15" t="s">
-        <v>284</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="5:39">
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="5:39">
-      <c r="E17" t="s">
-        <v>286</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="5:39">
-      <c r="E18" t="s">
-        <v>287</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="19" spans="5:39">
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="5:39">
-      <c r="E20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="21" spans="5:39">
-      <c r="E21" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="5:39">
-      <c r="E22" t="s">
-        <v>291</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="23" spans="5:39">
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="24" spans="5:39">
-      <c r="E24" t="s">
-        <v>293</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="25" spans="5:39">
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="26" spans="5:39">
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="27" spans="5:39">
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="28" spans="5:39">
-      <c r="E28" t="s">
-        <v>297</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="29" spans="5:39">
-      <c r="E29" t="s">
-        <v>298</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="30" spans="5:39">
-      <c r="E30" t="s">
-        <v>299</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="5:39">
-      <c r="AM31" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="32" spans="5:39">
-      <c r="AM32" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="33" spans="39:39">
-      <c r="AM33" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="34" spans="39:39">
-      <c r="AM34" t="s">
+      <c r="AO30" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="39:39">
-      <c r="AM35" t="s">
+    <row r="31" spans="7:41">
+      <c r="AO31" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="36" spans="39:39">
-      <c r="AM36" t="s">
+    <row r="32" spans="7:41">
+      <c r="AO32" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="37" spans="39:39">
-      <c r="AM37" t="s">
+    <row r="33" spans="41:41">
+      <c r="AO33" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="38" spans="39:39">
-      <c r="AM38" t="s">
+    <row r="34" spans="41:41">
+      <c r="AO34" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="39" spans="39:39">
-      <c r="AM39" t="s">
+    <row r="35" spans="41:41">
+      <c r="AO35" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="40" spans="39:39">
-      <c r="AM40" t="s">
+    <row r="36" spans="41:41">
+      <c r="AO36" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="41" spans="39:39">
-      <c r="AM41" t="s">
+    <row r="37" spans="41:41">
+      <c r="AO37" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="42" spans="39:39">
-      <c r="AM42" t="s">
+    <row r="38" spans="41:41">
+      <c r="AO38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="43" spans="39:39">
-      <c r="AM43" t="s">
+    <row r="39" spans="41:41">
+      <c r="AO39" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="39:39">
-      <c r="AM44" t="s">
+    <row r="40" spans="41:41">
+      <c r="AO40" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="45" spans="39:39">
-      <c r="AM45" t="s">
+    <row r="41" spans="41:41">
+      <c r="AO41" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="46" spans="39:39">
-      <c r="AM46" t="s">
+    <row r="42" spans="41:41">
+      <c r="AO42" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="47" spans="39:39">
-      <c r="AM47" t="s">
+    <row r="43" spans="41:41">
+      <c r="AO43" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="48" spans="39:39">
-      <c r="AM48" t="s">
+    <row r="44" spans="41:41">
+      <c r="AO44" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="49" spans="39:39">
-      <c r="AM49" t="s">
+    <row r="45" spans="41:41">
+      <c r="AO45" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="39:39">
-      <c r="AM50" t="s">
+    <row r="46" spans="41:41">
+      <c r="AO46" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="51" spans="39:39">
-      <c r="AM51" t="s">
+    <row r="47" spans="41:41">
+      <c r="AO47" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="52" spans="39:39">
-      <c r="AM52" t="s">
+    <row r="48" spans="41:41">
+      <c r="AO48" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="53" spans="39:39">
-      <c r="AM53" t="s">
+    <row r="49" spans="41:41">
+      <c r="AO49" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="54" spans="39:39">
-      <c r="AM54" t="s">
+    <row r="50" spans="41:41">
+      <c r="AO50" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="39:39">
-      <c r="AM55" t="s">
+    <row r="51" spans="41:41">
+      <c r="AO51" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="56" spans="39:39">
-      <c r="AM56" t="s">
+    <row r="52" spans="41:41">
+      <c r="AO52" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="57" spans="39:39">
-      <c r="AM57" t="s">
+    <row r="53" spans="41:41">
+      <c r="AO53" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="58" spans="39:39">
-      <c r="AM58" t="s">
+    <row r="54" spans="41:41">
+      <c r="AO54" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="59" spans="39:39">
-      <c r="AM59" t="s">
+    <row r="55" spans="41:41">
+      <c r="AO55" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="60" spans="39:39">
-      <c r="AM60" t="s">
+    <row r="56" spans="41:41">
+      <c r="AO56" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="61" spans="39:39">
-      <c r="AM61" t="s">
+    <row r="57" spans="41:41">
+      <c r="AO57" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="62" spans="39:39">
-      <c r="AM62" t="s">
+    <row r="58" spans="41:41">
+      <c r="AO58" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="63" spans="39:39">
-      <c r="AM63" t="s">
+    <row r="59" spans="41:41">
+      <c r="AO59" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="64" spans="39:39">
-      <c r="AM64" t="s">
+    <row r="60" spans="41:41">
+      <c r="AO60" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="65" spans="39:39">
-      <c r="AM65" t="s">
+    <row r="61" spans="41:41">
+      <c r="AO61" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="66" spans="39:39">
-      <c r="AM66" t="s">
+    <row r="62" spans="41:41">
+      <c r="AO62" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="67" spans="39:39">
-      <c r="AM67" t="s">
+    <row r="63" spans="41:41">
+      <c r="AO63" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="68" spans="39:39">
-      <c r="AM68" t="s">
+    <row r="64" spans="41:41">
+      <c r="AO64" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="39:39">
-      <c r="AM69" t="s">
+    <row r="65" spans="41:41">
+      <c r="AO65" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="70" spans="39:39">
-      <c r="AM70" t="s">
+    <row r="66" spans="41:41">
+      <c r="AO66" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="39:39">
-      <c r="AM71" t="s">
+    <row r="67" spans="41:41">
+      <c r="AO67" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="72" spans="39:39">
-      <c r="AM72" t="s">
+    <row r="68" spans="41:41">
+      <c r="AO68" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="73" spans="39:39">
-      <c r="AM73" t="s">
+    <row r="69" spans="41:41">
+      <c r="AO69" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="74" spans="39:39">
-      <c r="AM74" t="s">
+    <row r="70" spans="41:41">
+      <c r="AO70" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="75" spans="39:39">
-      <c r="AM75" t="s">
+    <row r="71" spans="41:41">
+      <c r="AO71" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="76" spans="39:39">
-      <c r="AM76" t="s">
+    <row r="72" spans="41:41">
+      <c r="AO72" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="77" spans="39:39">
-      <c r="AM77" t="s">
+    <row r="73" spans="41:41">
+      <c r="AO73" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="39:39">
-      <c r="AM78" t="s">
+    <row r="74" spans="41:41">
+      <c r="AO74" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="79" spans="39:39">
-      <c r="AM79" t="s">
+    <row r="75" spans="41:41">
+      <c r="AO75" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="80" spans="39:39">
-      <c r="AM80" t="s">
+    <row r="76" spans="41:41">
+      <c r="AO76" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="39:39">
-      <c r="AM81" t="s">
+    <row r="77" spans="41:41">
+      <c r="AO77" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="82" spans="39:39">
-      <c r="AM82" t="s">
+    <row r="78" spans="41:41">
+      <c r="AO78" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="83" spans="39:39">
-      <c r="AM83" t="s">
+    <row r="79" spans="41:41">
+      <c r="AO79" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="84" spans="39:39">
-      <c r="AM84" t="s">
+    <row r="80" spans="41:41">
+      <c r="AO80" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="85" spans="39:39">
-      <c r="AM85" t="s">
+    <row r="81" spans="41:41">
+      <c r="AO81" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="86" spans="39:39">
-      <c r="AM86" t="s">
+    <row r="82" spans="41:41">
+      <c r="AO82" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="87" spans="39:39">
-      <c r="AM87" t="s">
+    <row r="83" spans="41:41">
+      <c r="AO83" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="88" spans="39:39">
-      <c r="AM88" t="s">
+    <row r="84" spans="41:41">
+      <c r="AO84" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="89" spans="39:39">
-      <c r="AM89" t="s">
+    <row r="85" spans="41:41">
+      <c r="AO85" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="39:39">
-      <c r="AM90" t="s">
+    <row r="86" spans="41:41">
+      <c r="AO86" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="91" spans="39:39">
-      <c r="AM91" t="s">
+    <row r="87" spans="41:41">
+      <c r="AO87" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="92" spans="39:39">
-      <c r="AM92" t="s">
+    <row r="88" spans="41:41">
+      <c r="AO88" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="93" spans="39:39">
-      <c r="AM93" t="s">
+    <row r="89" spans="41:41">
+      <c r="AO89" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="94" spans="39:39">
-      <c r="AM94" t="s">
+    <row r="90" spans="41:41">
+      <c r="AO90" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="95" spans="39:39">
-      <c r="AM95" t="s">
+    <row r="91" spans="41:41">
+      <c r="AO91" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="96" spans="39:39">
-      <c r="AM96" t="s">
+    <row r="92" spans="41:41">
+      <c r="AO92" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="39:39">
-      <c r="AM97" t="s">
+    <row r="93" spans="41:41">
+      <c r="AO93" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="98" spans="39:39">
-      <c r="AM98" t="s">
+    <row r="94" spans="41:41">
+      <c r="AO94" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="99" spans="39:39">
-      <c r="AM99" t="s">
+    <row r="95" spans="41:41">
+      <c r="AO95" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="39:39">
-      <c r="AM100" t="s">
+    <row r="96" spans="41:41">
+      <c r="AO96" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="101" spans="39:39">
-      <c r="AM101" t="s">
+    <row r="97" spans="41:41">
+      <c r="AO97" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="102" spans="39:39">
-      <c r="AM102" t="s">
+    <row r="98" spans="41:41">
+      <c r="AO98" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="103" spans="39:39">
-      <c r="AM103" t="s">
+    <row r="99" spans="41:41">
+      <c r="AO99" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="104" spans="39:39">
-      <c r="AM104" t="s">
+    <row r="100" spans="41:41">
+      <c r="AO100" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="105" spans="39:39">
-      <c r="AM105" t="s">
+    <row r="101" spans="41:41">
+      <c r="AO101" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="106" spans="39:39">
-      <c r="AM106" t="s">
+    <row r="102" spans="41:41">
+      <c r="AO102" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="107" spans="39:39">
-      <c r="AM107" t="s">
+    <row r="103" spans="41:41">
+      <c r="AO103" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="108" spans="39:39">
-      <c r="AM108" t="s">
+    <row r="104" spans="41:41">
+      <c r="AO104" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="109" spans="39:39">
-      <c r="AM109" t="s">
+    <row r="105" spans="41:41">
+      <c r="AO105" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="110" spans="39:39">
-      <c r="AM110" t="s">
+    <row r="106" spans="41:41">
+      <c r="AO106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="111" spans="39:39">
-      <c r="AM111" t="s">
+    <row r="107" spans="41:41">
+      <c r="AO107" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="112" spans="39:39">
-      <c r="AM112" t="s">
+    <row r="108" spans="41:41">
+      <c r="AO108" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="113" spans="39:39">
-      <c r="AM113" t="s">
+    <row r="109" spans="41:41">
+      <c r="AO109" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="114" spans="39:39">
-      <c r="AM114" t="s">
+    <row r="110" spans="41:41">
+      <c r="AO110" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="115" spans="39:39">
-      <c r="AM115" t="s">
+    <row r="111" spans="41:41">
+      <c r="AO111" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="116" spans="39:39">
-      <c r="AM116" t="s">
+    <row r="112" spans="41:41">
+      <c r="AO112" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="117" spans="39:39">
-      <c r="AM117" t="s">
+    <row r="113" spans="41:41">
+      <c r="AO113" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="118" spans="39:39">
-      <c r="AM118" t="s">
+    <row r="114" spans="41:41">
+      <c r="AO114" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="119" spans="39:39">
-      <c r="AM119" t="s">
+    <row r="115" spans="41:41">
+      <c r="AO115" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="120" spans="39:39">
-      <c r="AM120" t="s">
+    <row r="116" spans="41:41">
+      <c r="AO116" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="121" spans="39:39">
-      <c r="AM121" t="s">
+    <row r="117" spans="41:41">
+      <c r="AO117" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="122" spans="39:39">
-      <c r="AM122" t="s">
+    <row r="118" spans="41:41">
+      <c r="AO118" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="123" spans="39:39">
-      <c r="AM123" t="s">
+    <row r="119" spans="41:41">
+      <c r="AO119" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="124" spans="39:39">
-      <c r="AM124" t="s">
+    <row r="120" spans="41:41">
+      <c r="AO120" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="125" spans="39:39">
-      <c r="AM125" t="s">
+    <row r="121" spans="41:41">
+      <c r="AO121" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="126" spans="39:39">
-      <c r="AM126" t="s">
+    <row r="122" spans="41:41">
+      <c r="AO122" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="127" spans="39:39">
-      <c r="AM127" t="s">
+    <row r="123" spans="41:41">
+      <c r="AO123" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="128" spans="39:39">
-      <c r="AM128" t="s">
+    <row r="124" spans="41:41">
+      <c r="AO124" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="129" spans="39:39">
-      <c r="AM129" t="s">
+    <row r="125" spans="41:41">
+      <c r="AO125" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="130" spans="39:39">
-      <c r="AM130" t="s">
+    <row r="126" spans="41:41">
+      <c r="AO126" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="131" spans="39:39">
-      <c r="AM131" t="s">
+    <row r="127" spans="41:41">
+      <c r="AO127" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="132" spans="39:39">
-      <c r="AM132" t="s">
+    <row r="128" spans="41:41">
+      <c r="AO128" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="133" spans="39:39">
-      <c r="AM133" t="s">
+    <row r="129" spans="41:41">
+      <c r="AO129" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="134" spans="39:39">
-      <c r="AM134" t="s">
+    <row r="130" spans="41:41">
+      <c r="AO130" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="135" spans="39:39">
-      <c r="AM135" t="s">
+    <row r="131" spans="41:41">
+      <c r="AO131" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="136" spans="39:39">
-      <c r="AM136" t="s">
+    <row r="132" spans="41:41">
+      <c r="AO132" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="137" spans="39:39">
-      <c r="AM137" t="s">
+    <row r="133" spans="41:41">
+      <c r="AO133" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="138" spans="39:39">
-      <c r="AM138" t="s">
+    <row r="134" spans="41:41">
+      <c r="AO134" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="139" spans="39:39">
-      <c r="AM139" t="s">
+    <row r="135" spans="41:41">
+      <c r="AO135" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="140" spans="39:39">
-      <c r="AM140" t="s">
+    <row r="136" spans="41:41">
+      <c r="AO136" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="141" spans="39:39">
-      <c r="AM141" t="s">
+    <row r="137" spans="41:41">
+      <c r="AO137" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="142" spans="39:39">
-      <c r="AM142" t="s">
+    <row r="138" spans="41:41">
+      <c r="AO138" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="143" spans="39:39">
-      <c r="AM143" t="s">
+    <row r="139" spans="41:41">
+      <c r="AO139" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="144" spans="39:39">
-      <c r="AM144" t="s">
+    <row r="140" spans="41:41">
+      <c r="AO140" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="145" spans="39:39">
-      <c r="AM145" t="s">
+    <row r="141" spans="41:41">
+      <c r="AO141" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="146" spans="39:39">
-      <c r="AM146" t="s">
+    <row r="142" spans="41:41">
+      <c r="AO142" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="147" spans="39:39">
-      <c r="AM147" t="s">
+    <row r="143" spans="41:41">
+      <c r="AO143" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="148" spans="39:39">
-      <c r="AM148" t="s">
+    <row r="144" spans="41:41">
+      <c r="AO144" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="39:39">
-      <c r="AM149" t="s">
+    <row r="145" spans="41:41">
+      <c r="AO145" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="150" spans="39:39">
-      <c r="AM150" t="s">
+    <row r="146" spans="41:41">
+      <c r="AO146" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="151" spans="39:39">
-      <c r="AM151" t="s">
+    <row r="147" spans="41:41">
+      <c r="AO147" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="152" spans="39:39">
-      <c r="AM152" t="s">
+    <row r="148" spans="41:41">
+      <c r="AO148" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="153" spans="39:39">
-      <c r="AM153" t="s">
+    <row r="149" spans="41:41">
+      <c r="AO149" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="154" spans="39:39">
-      <c r="AM154" t="s">
+    <row r="150" spans="41:41">
+      <c r="AO150" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="155" spans="39:39">
-      <c r="AM155" t="s">
+    <row r="151" spans="41:41">
+      <c r="AO151" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="156" spans="39:39">
-      <c r="AM156" t="s">
+    <row r="152" spans="41:41">
+      <c r="AO152" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="157" spans="39:39">
-      <c r="AM157" t="s">
+    <row r="153" spans="41:41">
+      <c r="AO153" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="158" spans="39:39">
-      <c r="AM158" t="s">
+    <row r="154" spans="41:41">
+      <c r="AO154" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="159" spans="39:39">
-      <c r="AM159" t="s">
+    <row r="155" spans="41:41">
+      <c r="AO155" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="160" spans="39:39">
-      <c r="AM160" t="s">
+    <row r="156" spans="41:41">
+      <c r="AO156" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="161" spans="39:39">
-      <c r="AM161" t="s">
+    <row r="157" spans="41:41">
+      <c r="AO157" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="162" spans="39:39">
-      <c r="AM162" t="s">
+    <row r="158" spans="41:41">
+      <c r="AO158" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="39:39">
-      <c r="AM163" t="s">
+    <row r="159" spans="41:41">
+      <c r="AO159" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="164" spans="39:39">
-      <c r="AM164" t="s">
+    <row r="160" spans="41:41">
+      <c r="AO160" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="165" spans="39:39">
-      <c r="AM165" t="s">
+    <row r="161" spans="41:41">
+      <c r="AO161" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="166" spans="39:39">
-      <c r="AM166" t="s">
+    <row r="162" spans="41:41">
+      <c r="AO162" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="167" spans="39:39">
-      <c r="AM167" t="s">
+    <row r="163" spans="41:41">
+      <c r="AO163" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="168" spans="39:39">
-      <c r="AM168" t="s">
+    <row r="164" spans="41:41">
+      <c r="AO164" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="169" spans="39:39">
-      <c r="AM169" t="s">
+    <row r="165" spans="41:41">
+      <c r="AO165" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="170" spans="39:39">
-      <c r="AM170" t="s">
+    <row r="166" spans="41:41">
+      <c r="AO166" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="171" spans="39:39">
-      <c r="AM171" t="s">
+    <row r="167" spans="41:41">
+      <c r="AO167" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="172" spans="39:39">
-      <c r="AM172" t="s">
+    <row r="168" spans="41:41">
+      <c r="AO168" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="173" spans="39:39">
-      <c r="AM173" t="s">
+    <row r="169" spans="41:41">
+      <c r="AO169" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="174" spans="39:39">
-      <c r="AM174" t="s">
+    <row r="170" spans="41:41">
+      <c r="AO170" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="175" spans="39:39">
-      <c r="AM175" t="s">
+    <row r="171" spans="41:41">
+      <c r="AO171" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="176" spans="39:39">
-      <c r="AM176" t="s">
+    <row r="172" spans="41:41">
+      <c r="AO172" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="177" spans="39:39">
-      <c r="AM177" t="s">
+    <row r="173" spans="41:41">
+      <c r="AO173" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="178" spans="39:39">
-      <c r="AM178" t="s">
+    <row r="174" spans="41:41">
+      <c r="AO174" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="179" spans="39:39">
-      <c r="AM179" t="s">
+    <row r="175" spans="41:41">
+      <c r="AO175" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="180" spans="39:39">
-      <c r="AM180" t="s">
+    <row r="176" spans="41:41">
+      <c r="AO176" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="181" spans="39:39">
-      <c r="AM181" t="s">
+    <row r="177" spans="41:41">
+      <c r="AO177" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="182" spans="39:39">
-      <c r="AM182" t="s">
+    <row r="178" spans="41:41">
+      <c r="AO178" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="183" spans="39:39">
-      <c r="AM183" t="s">
+    <row r="179" spans="41:41">
+      <c r="AO179" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="184" spans="39:39">
-      <c r="AM184" t="s">
+    <row r="180" spans="41:41">
+      <c r="AO180" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="185" spans="39:39">
-      <c r="AM185" t="s">
+    <row r="181" spans="41:41">
+      <c r="AO181" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="186" spans="39:39">
-      <c r="AM186" t="s">
+    <row r="182" spans="41:41">
+      <c r="AO182" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="187" spans="39:39">
-      <c r="AM187" t="s">
+    <row r="183" spans="41:41">
+      <c r="AO183" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="188" spans="39:39">
-      <c r="AM188" t="s">
+    <row r="184" spans="41:41">
+      <c r="AO184" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="189" spans="39:39">
-      <c r="AM189" t="s">
+    <row r="185" spans="41:41">
+      <c r="AO185" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="190" spans="39:39">
-      <c r="AM190" t="s">
+    <row r="186" spans="41:41">
+      <c r="AO186" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="191" spans="39:39">
-      <c r="AM191" t="s">
+    <row r="187" spans="41:41">
+      <c r="AO187" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="192" spans="39:39">
-      <c r="AM192" t="s">
+    <row r="188" spans="41:41">
+      <c r="AO188" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="193" spans="39:39">
-      <c r="AM193" t="s">
+    <row r="189" spans="41:41">
+      <c r="AO189" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="194" spans="39:39">
-      <c r="AM194" t="s">
+    <row r="190" spans="41:41">
+      <c r="AO190" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="195" spans="39:39">
-      <c r="AM195" t="s">
+    <row r="191" spans="41:41">
+      <c r="AO191" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="196" spans="39:39">
-      <c r="AM196" t="s">
+    <row r="192" spans="41:41">
+      <c r="AO192" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="197" spans="39:39">
-      <c r="AM197" t="s">
+    <row r="193" spans="41:41">
+      <c r="AO193" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="198" spans="39:39">
-      <c r="AM198" t="s">
+    <row r="194" spans="41:41">
+      <c r="AO194" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="199" spans="39:39">
-      <c r="AM199" t="s">
+    <row r="195" spans="41:41">
+      <c r="AO195" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="200" spans="39:39">
-      <c r="AM200" t="s">
+    <row r="196" spans="41:41">
+      <c r="AO196" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="201" spans="39:39">
-      <c r="AM201" t="s">
+    <row r="197" spans="41:41">
+      <c r="AO197" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="202" spans="39:39">
-      <c r="AM202" t="s">
+    <row r="198" spans="41:41">
+      <c r="AO198" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="203" spans="39:39">
-      <c r="AM203" t="s">
+    <row r="199" spans="41:41">
+      <c r="AO199" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="204" spans="39:39">
-      <c r="AM204" t="s">
+    <row r="200" spans="41:41">
+      <c r="AO200" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="205" spans="39:39">
-      <c r="AM205" t="s">
+    <row r="201" spans="41:41">
+      <c r="AO201" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="206" spans="39:39">
-      <c r="AM206" t="s">
+    <row r="202" spans="41:41">
+      <c r="AO202" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="207" spans="39:39">
-      <c r="AM207" t="s">
+    <row r="203" spans="41:41">
+      <c r="AO203" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="208" spans="39:39">
-      <c r="AM208" t="s">
+    <row r="204" spans="41:41">
+      <c r="AO204" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="209" spans="39:39">
-      <c r="AM209" t="s">
+    <row r="205" spans="41:41">
+      <c r="AO205" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="210" spans="39:39">
-      <c r="AM210" t="s">
+    <row r="206" spans="41:41">
+      <c r="AO206" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="211" spans="39:39">
-      <c r="AM211" t="s">
+    <row r="207" spans="41:41">
+      <c r="AO207" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="212" spans="39:39">
-      <c r="AM212" t="s">
+    <row r="208" spans="41:41">
+      <c r="AO208" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="213" spans="39:39">
-      <c r="AM213" t="s">
+    <row r="209" spans="41:41">
+      <c r="AO209" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="214" spans="39:39">
-      <c r="AM214" t="s">
+    <row r="210" spans="41:41">
+      <c r="AO210" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="215" spans="39:39">
-      <c r="AM215" t="s">
+    <row r="211" spans="41:41">
+      <c r="AO211" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="216" spans="39:39">
-      <c r="AM216" t="s">
+    <row r="212" spans="41:41">
+      <c r="AO212" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="217" spans="39:39">
-      <c r="AM217" t="s">
+    <row r="213" spans="41:41">
+      <c r="AO213" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="218" spans="39:39">
-      <c r="AM218" t="s">
+    <row r="214" spans="41:41">
+      <c r="AO214" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="219" spans="39:39">
-      <c r="AM219" t="s">
+    <row r="215" spans="41:41">
+      <c r="AO215" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="220" spans="39:39">
-      <c r="AM220" t="s">
+    <row r="216" spans="41:41">
+      <c r="AO216" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="221" spans="39:39">
-      <c r="AM221" t="s">
+    <row r="217" spans="41:41">
+      <c r="AO217" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="222" spans="39:39">
-      <c r="AM222" t="s">
+    <row r="218" spans="41:41">
+      <c r="AO218" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="223" spans="39:39">
-      <c r="AM223" t="s">
+    <row r="219" spans="41:41">
+      <c r="AO219" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="224" spans="39:39">
-      <c r="AM224" t="s">
+    <row r="220" spans="41:41">
+      <c r="AO220" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="225" spans="39:39">
-      <c r="AM225" t="s">
+    <row r="221" spans="41:41">
+      <c r="AO221" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="226" spans="39:39">
-      <c r="AM226" t="s">
+    <row r="222" spans="41:41">
+      <c r="AO222" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="227" spans="39:39">
-      <c r="AM227" t="s">
+    <row r="223" spans="41:41">
+      <c r="AO223" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="228" spans="39:39">
-      <c r="AM228" t="s">
+    <row r="224" spans="41:41">
+      <c r="AO224" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="229" spans="39:39">
-      <c r="AM229" t="s">
+    <row r="225" spans="41:41">
+      <c r="AO225" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="230" spans="39:39">
-      <c r="AM230" t="s">
+    <row r="226" spans="41:41">
+      <c r="AO226" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="231" spans="39:39">
-      <c r="AM231" t="s">
+    <row r="227" spans="41:41">
+      <c r="AO227" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="232" spans="39:39">
-      <c r="AM232" t="s">
+    <row r="228" spans="41:41">
+      <c r="AO228" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="233" spans="39:39">
-      <c r="AM233" t="s">
+    <row r="229" spans="41:41">
+      <c r="AO229" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="234" spans="39:39">
-      <c r="AM234" t="s">
+    <row r="230" spans="41:41">
+      <c r="AO230" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="235" spans="39:39">
-      <c r="AM235" t="s">
+    <row r="231" spans="41:41">
+      <c r="AO231" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="236" spans="39:39">
-      <c r="AM236" t="s">
+    <row r="232" spans="41:41">
+      <c r="AO232" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="237" spans="39:39">
-      <c r="AM237" t="s">
+    <row r="233" spans="41:41">
+      <c r="AO233" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="238" spans="39:39">
-      <c r="AM238" t="s">
+    <row r="234" spans="41:41">
+      <c r="AO234" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="239" spans="39:39">
-      <c r="AM239" t="s">
+    <row r="235" spans="41:41">
+      <c r="AO235" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="240" spans="39:39">
-      <c r="AM240" t="s">
+    <row r="236" spans="41:41">
+      <c r="AO236" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="241" spans="39:39">
-      <c r="AM241" t="s">
+    <row r="237" spans="41:41">
+      <c r="AO237" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="242" spans="39:39">
-      <c r="AM242" t="s">
+    <row r="238" spans="41:41">
+      <c r="AO238" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="243" spans="39:39">
-      <c r="AM243" t="s">
+    <row r="239" spans="41:41">
+      <c r="AO239" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="244" spans="39:39">
-      <c r="AM244" t="s">
+    <row r="240" spans="41:41">
+      <c r="AO240" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="245" spans="39:39">
-      <c r="AM245" t="s">
+    <row r="241" spans="41:41">
+      <c r="AO241" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="246" spans="39:39">
-      <c r="AM246" t="s">
+    <row r="242" spans="41:41">
+      <c r="AO242" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="247" spans="39:39">
-      <c r="AM247" t="s">
+    <row r="243" spans="41:41">
+      <c r="AO243" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="248" spans="39:39">
-      <c r="AM248" t="s">
+    <row r="244" spans="41:41">
+      <c r="AO244" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="249" spans="39:39">
-      <c r="AM249" t="s">
+    <row r="245" spans="41:41">
+      <c r="AO245" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="250" spans="39:39">
-      <c r="AM250" t="s">
+    <row r="246" spans="41:41">
+      <c r="AO246" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="251" spans="39:39">
-      <c r="AM251" t="s">
+    <row r="247" spans="41:41">
+      <c r="AO247" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="252" spans="39:39">
-      <c r="AM252" t="s">
+    <row r="248" spans="41:41">
+      <c r="AO248" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="253" spans="39:39">
-      <c r="AM253" t="s">
+    <row r="249" spans="41:41">
+      <c r="AO249" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="254" spans="39:39">
-      <c r="AM254" t="s">
+    <row r="250" spans="41:41">
+      <c r="AO250" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="255" spans="39:39">
-      <c r="AM255" t="s">
+    <row r="251" spans="41:41">
+      <c r="AO251" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="256" spans="39:39">
-      <c r="AM256" t="s">
+    <row r="252" spans="41:41">
+      <c r="AO252" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="257" spans="39:39">
-      <c r="AM257" t="s">
+    <row r="253" spans="41:41">
+      <c r="AO253" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="258" spans="39:39">
-      <c r="AM258" t="s">
+    <row r="254" spans="41:41">
+      <c r="AO254" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="259" spans="39:39">
-      <c r="AM259" t="s">
+    <row r="255" spans="41:41">
+      <c r="AO255" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="260" spans="39:39">
-      <c r="AM260" t="s">
+    <row r="256" spans="41:41">
+      <c r="AO256" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="261" spans="39:39">
-      <c r="AM261" t="s">
+    <row r="257" spans="41:41">
+      <c r="AO257" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="262" spans="39:39">
-      <c r="AM262" t="s">
+    <row r="258" spans="41:41">
+      <c r="AO258" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="263" spans="39:39">
-      <c r="AM263" t="s">
+    <row r="259" spans="41:41">
+      <c r="AO259" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="264" spans="39:39">
-      <c r="AM264" t="s">
+    <row r="260" spans="41:41">
+      <c r="AO260" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="265" spans="39:39">
-      <c r="AM265" t="s">
+    <row r="261" spans="41:41">
+      <c r="AO261" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="266" spans="39:39">
-      <c r="AM266" t="s">
+    <row r="262" spans="41:41">
+      <c r="AO262" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="267" spans="39:39">
-      <c r="AM267" t="s">
+    <row r="263" spans="41:41">
+      <c r="AO263" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="268" spans="39:39">
-      <c r="AM268" t="s">
+    <row r="264" spans="41:41">
+      <c r="AO264" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="269" spans="39:39">
-      <c r="AM269" t="s">
+    <row r="265" spans="41:41">
+      <c r="AO265" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="270" spans="39:39">
-      <c r="AM270" t="s">
+    <row r="266" spans="41:41">
+      <c r="AO266" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="271" spans="39:39">
-      <c r="AM271" t="s">
+    <row r="267" spans="41:41">
+      <c r="AO267" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="272" spans="39:39">
-      <c r="AM272" t="s">
+    <row r="268" spans="41:41">
+      <c r="AO268" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="273" spans="39:39">
-      <c r="AM273" t="s">
+    <row r="269" spans="41:41">
+      <c r="AO269" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="274" spans="39:39">
-      <c r="AM274" t="s">
+    <row r="270" spans="41:41">
+      <c r="AO270" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="275" spans="39:39">
-      <c r="AM275" t="s">
+    <row r="271" spans="41:41">
+      <c r="AO271" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="276" spans="39:39">
-      <c r="AM276" t="s">
+    <row r="272" spans="41:41">
+      <c r="AO272" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="277" spans="39:39">
-      <c r="AM277" t="s">
+    <row r="273" spans="41:41">
+      <c r="AO273" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="278" spans="39:39">
-      <c r="AM278" t="s">
+    <row r="274" spans="41:41">
+      <c r="AO274" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="279" spans="39:39">
-      <c r="AM279" t="s">
+    <row r="275" spans="41:41">
+      <c r="AO275" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="280" spans="39:39">
-      <c r="AM280" t="s">
+    <row r="276" spans="41:41">
+      <c r="AO276" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="281" spans="39:39">
-      <c r="AM281" t="s">
+    <row r="277" spans="41:41">
+      <c r="AO277" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="282" spans="39:39">
-      <c r="AM282" t="s">
+    <row r="278" spans="41:41">
+      <c r="AO278" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="283" spans="39:39">
-      <c r="AM283" t="s">
+    <row r="279" spans="41:41">
+      <c r="AO279" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="284" spans="39:39">
-      <c r="AM284" t="s">
+    <row r="280" spans="41:41">
+      <c r="AO280" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="285" spans="39:39">
-      <c r="AM285" t="s">
+    <row r="281" spans="41:41">
+      <c r="AO281" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="286" spans="39:39">
-      <c r="AM286" t="s">
+    <row r="282" spans="41:41">
+      <c r="AO282" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="287" spans="39:39">
-      <c r="AM287" t="s">
+    <row r="283" spans="41:41">
+      <c r="AO283" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="288" spans="39:39">
-      <c r="AM288" t="s">
+    <row r="284" spans="41:41">
+      <c r="AO284" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="289" spans="39:39">
-      <c r="AM289" t="s">
+    <row r="285" spans="41:41">
+      <c r="AO285" t="s">
         <v>673</v>
+      </c>
+    </row>
+    <row r="286" spans="41:41">
+      <c r="AO286" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="287" spans="41:41">
+      <c r="AO287" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="288" spans="41:41">
+      <c r="AO288" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="289" spans="41:41">
+      <c r="AO289" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="796">
   <si>
     <t>alias</t>
   </si>
@@ -1190,7 +1190,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1418,9 +1418,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1439,6 +1436,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1640,6 +1640,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1649,9 +1652,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1691,7 +1691,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1760,6 +1760,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1835,6 +1838,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1856,6 +1862,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1901,6 +1910,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1913,6 +1925,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1922,9 +1937,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1949,6 +1961,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2009,12 +2024,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2114,7 +2129,7 @@
     <t>sludge retention time</t>
   </si>
   <si>
-    <t>(Optional) The time activated sludge remains in reactor (Units: weeks)</t>
+    <t>(Optional) The time activated sludge remains in reactor (Units: hours, weeks, minutes, days)</t>
   </si>
   <si>
     <t>tertiary treatment</t>
@@ -2174,7 +2189,7 @@
     <t>emulsions</t>
   </si>
   <si>
-    <t>(Optional) Amount or concentration of substances such as paints, adhesives, mayonnaise, hair colorants, emulsified oils, etc.; can include multiple emulsion types (Units: µg/L)</t>
+    <t>(Optional) Amount or concentration of substances such as paints, adhesives, mayonnaise, hair colorants, emulsified oils, etc.; can include multiple emulsion types (Units: g/L, ng/L, µg/L)</t>
   </si>
   <si>
     <t>gaseous substances</t>
@@ -2186,7 +2201,7 @@
     <t>inorganic particles</t>
   </si>
   <si>
-    <t>(Optional) Concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles (Units: mol/L)</t>
+    <t>(Optional) Concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles (Units: mol/L, mg/L)</t>
   </si>
   <si>
     <t>organic particles</t>
@@ -2198,25 +2213,25 @@
     <t>soluble inorganic material</t>
   </si>
   <si>
-    <t>(Optional) Concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc. (Units: parts/million)</t>
+    <t>(Optional) Concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc. (Units: parts/million, mol/L, g/L)</t>
   </si>
   <si>
     <t>soluble organic material</t>
   </si>
   <si>
-    <t>(Optional) Concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc. (Units: parts/million)</t>
+    <t>(Optional) Concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc. (Units: parts/million, mol/L, g/L)</t>
   </si>
   <si>
     <t>suspended solids</t>
   </si>
   <si>
-    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million)</t>
+    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million, mol/L, g/L)</t>
   </si>
   <si>
     <t>total phosphate</t>
   </si>
   <si>
-    <t>(Optional) Total amount or concentration of phosphate (Units: µmol/L)</t>
+    <t>(Optional) Total amount or concentration of phosphate (Units: µmol/L, µg/L)</t>
   </si>
   <si>
     <t>nitrate</t>
@@ -2246,13 +2261,13 @@
     <t>sodium</t>
   </si>
   <si>
-    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
+    <t>(Optional) Sodium concentration (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>total nitrogen content</t>
   </si>
   <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L, µg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2336,7 +2351,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2402,7 +2417,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4073,175 +4088,175 @@
         <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:97" ht="150" customHeight="1">
@@ -4366,175 +4381,175 @@
         <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -4564,7 +4579,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AO289"/>
+  <dimension ref="G1:AO294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6156,6 +6171,31 @@
         <v>677</v>
       </c>
     </row>
+    <row r="290" spans="41:41">
+      <c r="AO290" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="291" spans="41:41">
+      <c r="AO291" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="292" spans="41:41">
+      <c r="AO292" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="293" spans="41:41">
+      <c r="AO293" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="294" spans="41:41">
+      <c r="AO294" t="s">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000023/metadata_template_ERC000023.xlsx
+++ b/templates/ERC000023/metadata_template_ERC000023.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="796">
   <si>
     <t>alias</t>
   </si>
@@ -1190,7 +1190,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1418,9 +1418,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1439,6 +1436,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1640,6 +1640,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1649,9 +1652,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1691,7 +1691,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1760,6 +1760,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1835,6 +1838,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1856,6 +1862,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1901,6 +1910,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1913,6 +1925,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1922,9 +1937,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1949,6 +1961,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2009,12 +2024,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2114,7 +2129,7 @@
     <t>sludge retention time</t>
   </si>
   <si>
-    <t>(Optional) The time activated sludge remains in reactor (Units: weeks)</t>
+    <t>(Optional) The time activated sludge remains in reactor (Units: days)</t>
   </si>
   <si>
     <t>tertiary treatment</t>
@@ -2186,7 +2201,7 @@
     <t>inorganic particles</t>
   </si>
   <si>
-    <t>(Optional) Concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles (Units: mol/L)</t>
+    <t>(Optional) Concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles (Units: mg/L)</t>
   </si>
   <si>
     <t>organic particles</t>
@@ -2198,25 +2213,25 @@
     <t>soluble inorganic material</t>
   </si>
   <si>
-    <t>(Optional) Concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc. (Units: parts/million)</t>
+    <t>(Optional) Concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc. (Units: g/L)</t>
   </si>
   <si>
     <t>soluble organic material</t>
   </si>
   <si>
-    <t>(Optional) Concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc. (Units: parts/million)</t>
+    <t>(Optional) Concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc. (Units: g/L)</t>
   </si>
   <si>
     <t>suspended solids</t>
   </si>
   <si>
-    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million)</t>
+    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: g/L)</t>
   </si>
   <si>
     <t>total phosphate</t>
   </si>
   <si>
-    <t>(Optional) Total amount or concentration of phosphate (Units: µmol/L)</t>
+    <t>(Optional) Total amount or concentration of phosphate (Units: µg/L)</t>
   </si>
   <si>
     <t>nitrate</t>
@@ -2252,7 +2267,7 @@
     <t>total nitrogen content</t>
   </si>
   <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2336,7 +2351,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2402,7 +2417,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4073,175 +4088,175 @@
         <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:97" ht="150" customHeight="1">
@@ -4366,175 +4381,175 @@
         <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -4564,7 +4579,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AO289"/>
+  <dimension ref="G1:AO294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6156,6 +6171,31 @@
         <v>677</v>
       </c>
     </row>
+    <row r="290" spans="41:41">
+      <c r="AO290" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="291" spans="41:41">
+      <c r="AO291" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="292" spans="41:41">
+      <c r="AO292" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="293" spans="41:41">
+      <c r="AO293" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="294" spans="41:41">
+      <c r="AO294" t="s">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
